--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,27 +980,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7/30/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DORREGO 2398</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>791764848</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ver fotos para ubicar la columna</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1025,50 +1025,50 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.437276</v>
+        <v>-58.413803</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.576359</v>
+        <v>-34.590308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>Anchorena Tomás Manuel 1288</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1098,35 +1098,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.413803</v>
+        <v>-58.406235</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590308</v>
+        <v>-34.594382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1175,26 +1175,26 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.406235</v>
+        <v>-58.405961</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.594382</v>
+        <v>-34.594038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1237,32 +1237,28 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.405961</v>
+        <v>-58.388894</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.594038</v>
+        <v>-34.587957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>GUIDO 1980</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1272,7 +1268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>804568874</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1285,11 +1281,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>1</t>
@@ -1297,7 +1289,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1307,36 +1299,36 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.388894</v>
+        <v>-58.391696</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.587957</v>
+        <v>-34.588656</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GUIDO 1980</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804568874</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1349,7 +1341,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>1</t>
@@ -1357,7 +1353,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1365,38 +1361,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>-58.391696</v>
+        <v>-58.426169</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.588656</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1409,62 +1409,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.426169</v>
+        <v>-58.447022</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.579697</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1477,46 +1461,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PIcada</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M16" t="n">
-        <v>-58.447022</v>
+        <v>-58.397512</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.575873</v>
+        <v>-34.609923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1546,45 +1546,45 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.397512</v>
+        <v>-58.436969</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.609923</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.436969</v>
+        <v>-58.391218</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.579977</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1687,40 +1687,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.391218</v>
+        <v>-58.4158</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.620237</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>ALSINA, VALENTIN AV. 1450</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803607792</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1755,40 +1755,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.4158</v>
+        <v>-58.438342</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.587493</v>
+        <v>-34.561655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALSINA, VALENTIN AV. 1450</t>
+          <t>SAN JUAN AV. 2460</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803607792</t>
+          <t>804309662</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1823,20 +1823,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.438342</v>
+        <v>-58.399986</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.561655</v>
+        <v>-34.62359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 2460</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309662</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1891,30 +1891,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.399986</v>
+        <v>-58.442791</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.62359</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1959,40 +1959,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.442791</v>
+        <v>-58.423996</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.569495</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5488</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>JUNCAL 1801</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804497961</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2027,30 +2027,30 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.423996</v>
+        <v>-58.393185</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.594973</v>
+        <v>-34.593761</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JUNCAL 1801</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804497961</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2095,40 +2095,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.393185</v>
+        <v>-58.397031</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.593761</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2167,26 +2167,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2235,26 +2235,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>DEAN FUNES 607</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>805507316</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,16 +2303,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.401202</v>
+        <v>-58.406628</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61683</v>
+        <v>-34.617946</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2322,17 +2322,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DEAN FUNES 607</t>
+          <t>MONTEVIDEO 286</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507316</t>
+          <t>805507389</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,36 +2371,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.406628</v>
+        <v>-58.389389</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.617946</v>
+        <v>-34.605604</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MONTEVIDEO 286</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507389</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2439,36 +2439,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.389389</v>
+        <v>-58.395063</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.605604</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/21/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>SANTA FE AV. 2979</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926475</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2507,36 +2507,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.395063</v>
+        <v>-58.407673</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.606257</v>
+        <v>-34.591006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/21/2025</t>
+          <t>5/23/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2979</t>
+          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926475</t>
+          <t>806926477</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,36 +2575,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.407673</v>
+        <v>-58.406566</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.591006</v>
+        <v>-34.595466</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+          <t>MEXICO 3290</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926477</t>
+          <t>807005375</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2639,20 +2639,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.406566</v>
+        <v>-58.412417</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.595466</v>
+        <v>-34.619396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2662,17 +2662,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MEXICO 3290</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807005375</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2707,20 +2707,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.412417</v>
+        <v>-58.450724</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.619396</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,36 +2779,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2843,40 +2843,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2911,20 +2911,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.41193</v>
+        <v>-58.482514</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.626628</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2979,20 +2979,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.482514</v>
+        <v>-58.42226</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.625307</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3051,77 +3051,9 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.42226</v>
+        <v>-58.416352</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.621605</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>5970</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>6/2/2025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>PAVON AV. 3665</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>807129382</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>-58.416352</v>
-      </c>
-      <c r="N40" t="n">
         <v>-34.630143</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,27 +980,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>GUEVARA 687</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>792041586</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Falta traspaso y retiro</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1039,36 +1039,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.413803</v>
+        <v>-58.453307</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.590308</v>
+        <v>-34.585706</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1098,45 +1098,45 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.406235</v>
+        <v>-58.498448</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.594382</v>
+        <v>-34.595287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1166,45 +1166,45 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.405961</v>
+        <v>-58.413803</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.594038</v>
+        <v>-34.590308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>9/9/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>ANDALGALA 2590</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>796141865</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1237,28 +1237,32 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M12" t="n">
-        <v>-58.388894</v>
+        <v>-58.502411</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.587957</v>
+        <v>-34.665815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GUIDO 1980</t>
+          <t>Anchorena Tomás Manuel 1288</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1268,7 +1272,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804568874</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1281,7 +1285,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Faltan traspasar redes y desmontar</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>1</t>
@@ -1297,38 +1305,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M13" t="n">
-        <v>-58.391696</v>
+        <v>-58.406235</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.588656</v>
+        <v>-34.594382</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1343,7 +1355,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1353,7 +1365,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1367,36 +1379,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.426169</v>
+        <v>-58.405961</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.579697</v>
+        <v>-34.594038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1409,46 +1421,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.447022</v>
+        <v>-58.388894</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.575873</v>
+        <v>-34.587957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1463,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1478,45 +1502,45 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.397512</v>
+        <v>-58.47874</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.609923</v>
+        <v>-34.61462</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>GUIDO 1980</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>804568874</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1529,11 +1553,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>1</t>
@@ -1549,42 +1569,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.436969</v>
+        <v>-58.391696</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.579977</v>
+        <v>-34.588656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1599,7 +1615,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1623,36 +1639,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.391218</v>
+        <v>-58.426169</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.620237</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>AVALOS 1487</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>801644860</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1667,7 +1683,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1687,40 +1703,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.4158</v>
+        <v>-58.478352</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.587493</v>
+        <v>-34.58305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ALSINA, VALENTIN AV. 1450</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803607792</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1735,7 +1751,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1745,7 +1761,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1755,40 +1771,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.438342</v>
+        <v>-58.44244</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.561655</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 2460</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309662</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1801,62 +1817,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.399986</v>
+        <v>-58.447022</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.62359</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1895,26 +1895,26 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.442791</v>
+        <v>-58.397512</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.569495</v>
+        <v>-34.609923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1963,36 +1963,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.423996</v>
+        <v>-58.436969</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.594973</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JUNCAL 1801</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804497961</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2031,36 +2031,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.393185</v>
+        <v>-58.391218</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.593761</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2099,36 +2099,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.397031</v>
+        <v>-58.4158</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.591926</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2143,17 +2143,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2167,36 +2167,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.396135</v>
+        <v>-58.460926</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.624285</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>ALSINA, VALENTIN AV. 1450</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>803607792</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2231,40 +2231,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.401202</v>
+        <v>-58.438342</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61683</v>
+        <v>-34.561655</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DEAN FUNES 607</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507316</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2299,40 +2299,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.406628</v>
+        <v>-58.426593</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.617946</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MONTEVIDEO 286</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507389</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2367,30 +2367,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.389389</v>
+        <v>-58.484185</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.605604</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>SAN JUAN AV. 2460</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>804309662</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2439,36 +2439,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.395063</v>
+        <v>-58.399986</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.606257</v>
+        <v>-34.62359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/21/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2979</t>
+          <t>CAMACUA 141</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926475</t>
+          <t>804309680</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2507,36 +2507,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.407673</v>
+        <v>-58.458015</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.591006</v>
+        <v>-34.629277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926477</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2571,40 +2571,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.406566</v>
+        <v>-58.442791</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.595466</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MEXICO 3290</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807005375</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2643,36 +2643,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.412417</v>
+        <v>-58.48396</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.619396</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2711,36 +2711,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.450724</v>
+        <v>-58.423996</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.567086</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,36 +2779,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.46522</v>
+        <v>-58.477988</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.556786</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2843,40 +2843,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.41193</v>
+        <v>-58.4716</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.626628</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5488</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>JUNCAL 1801</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>804497961</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2911,40 +2911,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.482514</v>
+        <v>-58.393185</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.625307</v>
+        <v>-34.593761</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2979,81 +2979,1033 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.42226</v>
+        <v>-58.397031</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.621605</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>5621</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4/22/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MORON 4106</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>804876042</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Desplazar columna por entrada de vehiculos.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>-58.487352</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-34.627992</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5657</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>COCHABAMBA 2207</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>804903806</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>-58.396135</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-34.624285</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5681</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4/28/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ALBERTI 621</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>805507259</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>-58.401202</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-34.61683</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>5683</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DEAN FUNES 607</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>805507316</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>-58.406628</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-34.617946</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5703</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MONTEVIDEO 286</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>805507389</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>-58.389389</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-34.605604</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5839</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5/19/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AYACUCHO 267</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>806926385</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>-58.395063</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-34.606257</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5/21/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SANTA FE AV. 2979</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>806926475</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>-58.407673</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-34.591006</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5/23/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>806926477</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-58.406566</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.595466</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MEXICO 3290</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>807005375</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Aplomar columna</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>-58.412417</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-34.619396</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CABILDO AV. 1500</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>806944768</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>-58.450724</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-34.567086</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5883</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CONGRESO AV. 2699</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>806944763</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.46522</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.556786</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5940</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5/29/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SANCHEZ DE LORIA 1406</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>807044148</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Columna con base corroída</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.41193</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.626628</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Joaquín V González 732</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>807129355</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.482514</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.625307</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BOCAYUVA, QUINTINO 805</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>807129364</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.42226</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.621605</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>5970</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>PAVON AV. 3665</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>807129382</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>Aplomo</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="M53" t="n">
         <v>-58.416352</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N53" t="n">
         <v>-34.630143</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,27 +1784,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-204</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>PARAGUAY /ALT/ 5549</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>799540519</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1817,7 +1817,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Recambio de columna</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>0</t>
@@ -1827,36 +1831,36 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.447022</v>
+        <v>-58.434516</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.575873</v>
+        <v>-34.576579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1869,62 +1873,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PIcada</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.397512</v>
+        <v>-58.447022</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.609923</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1939,7 +1927,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1954,45 +1942,45 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.436969</v>
+        <v>-58.397512</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.579977</v>
+        <v>-34.609923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2007,7 +1995,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2017,7 +2005,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2027,40 +2015,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.391218</v>
+        <v>-58.436969</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.620237</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2075,7 +2063,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2085,7 +2073,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2095,40 +2083,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.4158</v>
+        <v>-58.391218</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.587493</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2143,7 +2131,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2153,7 +2141,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2167,36 +2155,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.460926</v>
+        <v>-58.4158</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.578223</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALSINA, VALENTIN AV. 1450</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803607792</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2211,7 +2199,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2231,40 +2219,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.438342</v>
+        <v>-58.460926</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.561655</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>ALSINA, VALENTIN AV. 1450</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>803607792</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2279,7 +2267,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2289,7 +2277,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2299,40 +2287,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.426593</v>
+        <v>-58.438342</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.628211</v>
+        <v>-34.561655</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2347,7 +2335,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2357,7 +2345,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2371,16 +2359,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.484185</v>
+        <v>-58.426593</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.582206</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2390,17 +2378,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 2460</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309662</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2415,7 +2403,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2435,20 +2423,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.399986</v>
+        <v>-58.484185</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.62359</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2458,17 +2446,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CAMACUA 141</t>
+          <t>SAN JUAN AV. 2460</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309680</t>
+          <t>804309662</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2483,7 +2471,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2493,7 +2481,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2507,16 +2495,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.458015</v>
+        <v>-58.399986</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.629277</v>
+        <v>-34.62359</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2526,17 +2514,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>CAMACUA 141</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309680</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2551,7 +2539,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2561,7 +2549,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2571,20 +2559,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.442791</v>
+        <v>-58.458015</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.569495</v>
+        <v>-34.629277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2594,17 +2582,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2619,7 +2607,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2629,7 +2617,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2643,36 +2631,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.48396</v>
+        <v>-58.442791</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.582874</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2707,20 +2695,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.423996</v>
+        <v>-58.48396</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.594973</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2730,17 +2718,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2755,7 +2743,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2765,7 +2753,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2779,16 +2767,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.477988</v>
+        <v>-58.423996</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.630001</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2798,17 +2786,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,36 +2835,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.4716</v>
+        <v>-58.477988</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.627623</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JUNCAL 1801</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804497961</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2891,7 +2879,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2901,7 +2889,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2911,30 +2899,30 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.393185</v>
+        <v>-58.4716</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.593761</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5488</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>JUNCAL 1801</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2944,7 +2932,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804497961</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2959,7 +2947,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2969,7 +2957,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2979,40 +2967,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.397031</v>
+        <v>-58.393185</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.591926</v>
+        <v>-34.593761</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MORON 4106</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804876042</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3027,7 +3015,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desplazar columna por entrada de vehiculos.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3051,36 +3039,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.487352</v>
+        <v>-58.397031</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.627992</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5621</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>MORON 4106</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>804876042</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3095,12 +3083,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Desplazar columna por entrada de vehiculos.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3119,26 +3107,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.396135</v>
+        <v>-58.487352</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.624285</v>
+        <v>-34.627992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3148,7 +3136,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3163,12 +3151,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3187,26 +3175,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.401202</v>
+        <v>-58.396135</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.61683</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DEAN FUNES 607</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3216,7 +3204,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805507316</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,16 +3243,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.406628</v>
+        <v>-58.401202</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.617946</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3274,17 +3262,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MONTEVIDEO 286</t>
+          <t>DEAN FUNES 607</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805507389</t>
+          <t>805507316</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,36 +3311,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.389389</v>
+        <v>-58.406628</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.605604</v>
+        <v>-34.617946</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>MONTEVIDEO 286</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805507389</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3367,7 +3355,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3382,7 +3370,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3391,36 +3379,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.395063</v>
+        <v>-58.389389</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.606257</v>
+        <v>-34.605604</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/21/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2979</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926475</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3435,7 +3423,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3450,7 +3438,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3459,36 +3447,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.407673</v>
+        <v>-58.395063</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.591006</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>5/21/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+          <t>SANTA FE AV. 2979</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926477</t>
+          <t>806926475</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,36 +3515,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.406566</v>
+        <v>-58.407673</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.595466</v>
+        <v>-34.591006</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/23/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MEXICO 3290</t>
+          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807005375</t>
+          <t>806926477</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3571,7 +3559,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3581,7 +3569,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3591,20 +3579,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.412417</v>
+        <v>-58.406566</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.619396</v>
+        <v>-34.595466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3614,17 +3602,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>MEXICO 3290</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>807005375</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3639,7 +3627,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3649,7 +3637,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3659,20 +3647,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.450724</v>
+        <v>-58.412417</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.567086</v>
+        <v>-34.619396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3682,7 +3670,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3692,7 +3680,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,36 +3719,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.46522</v>
+        <v>-58.450724</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.556786</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3775,7 +3763,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3795,40 +3783,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.41193</v>
+        <v>-58.46522</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.626628</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3843,7 +3831,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3863,20 +3851,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.482514</v>
+        <v>-58.41193</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.625307</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3886,17 +3874,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3911,7 +3899,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3921,7 +3909,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3931,82 +3919,422 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.42226</v>
+        <v>-58.482514</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.621605</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BOCAYUVA, QUINTINO 805</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>807129364</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.42226</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.621605</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>5970</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>PAVON AV. 3665</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>807129382</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>Aplomo</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M54" t="n">
         <v>-58.416352</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N54" t="n">
         <v>-34.630143</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5973</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PALOS 432</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807168105</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.362579</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.635096</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BONIFACIO, JOSE 2647</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807168099</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.464608</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.633383</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5996</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BACACAY 2205</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807187775</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.461271</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.625615</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5998</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TRELLES, MANUEL R. 776</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807187772</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.459293</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.617445</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,27 +576,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>6092</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>3/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>ASUNCION 2783</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>788792584</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,50 +611,50 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Aplomar Columna</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.406882</v>
+        <v>-58.495259</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.588287</v>
+        <v>-34.59102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4/10/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BULNES 2012</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>784675885</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,12 +679,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Falta traspaso y retiro</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -694,45 +694,45 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.411461</v>
+        <v>-58.406882</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.587856</v>
+        <v>-34.588287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/5/2024</t>
+          <t>4/10/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARREGUI 3910</t>
+          <t>BULNES 2012</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>800645483</t>
+          <t>784675885</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -745,7 +745,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Falta traspaso y retiro</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>1</t>
@@ -763,40 +767,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.497719</v>
+        <v>-58.411461</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.612301</v>
+        <v>-34.587856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2245</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6/28/2024</t>
+          <t>5/5/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COMBATE DE LOS POZOS 895</t>
+          <t>ARREGUI 3910</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>790818847</t>
+          <t>800645483</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -809,11 +813,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Falta desmonte</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>1</t>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.393276</v>
+        <v>-58.497719</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.619383</v>
+        <v>-34.612301</v>
       </c>
     </row>
     <row r="7">
@@ -1580,7 +1580,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1590,17 +1590,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1633,42 +1633,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.426169</v>
+        <v>-58.477712</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.579697</v>
+        <v>-34.549447</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1693,7 +1689,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1707,26 +1703,26 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.478352</v>
+        <v>-58.426169</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.58305</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>AVALOS 1487</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1736,7 +1732,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>801644860</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1751,7 +1747,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1775,36 +1771,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.44244</v>
+        <v>-58.478352</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.593883</v>
+        <v>-34.58305</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-204</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 5549</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799540519</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1819,22 +1815,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M21" t="n">
-        <v>-58.434516</v>
+        <v>-58.44244</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.576579</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="22">
@@ -2300,27 +2308,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2335,17 +2343,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2359,36 +2367,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.426593</v>
+        <v>-58.478516</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.628211</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2403,12 +2411,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2418,7 +2426,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2427,36 +2435,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.484185</v>
+        <v>-58.487666</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.582206</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 2460</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309662</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2471,7 +2479,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2481,7 +2489,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2491,20 +2499,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.399986</v>
+        <v>-58.426593</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.62359</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2514,17 +2522,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CAMACUA 141</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309680</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2549,7 +2557,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2559,20 +2567,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.458015</v>
+        <v>-58.484185</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.629277</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2582,17 +2590,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>SAN JUAN AV. 2460</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309662</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2627,20 +2635,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.442791</v>
+        <v>-58.399986</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.569495</v>
+        <v>-34.62359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2650,17 +2658,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>CAMACUA 141</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804309680</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2695,30 +2703,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.48396</v>
+        <v>-58.458015</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.582874</v>
+        <v>-34.629277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2728,7 +2736,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2743,7 +2751,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2753,7 +2761,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2763,40 +2771,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.423996</v>
+        <v>-58.442791</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.594973</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2811,7 +2819,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2821,7 +2829,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2831,20 +2839,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.477988</v>
+        <v>-58.48396</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.630001</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2854,17 +2862,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2879,7 +2887,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2889,7 +2897,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2903,36 +2911,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.4716</v>
+        <v>-58.423996</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.627623</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JUNCAL 1801</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804497961</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2947,7 +2955,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2957,7 +2965,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2967,40 +2975,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.393185</v>
+        <v>-58.477988</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.593761</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3039,36 +3047,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.397031</v>
+        <v>-58.4716</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.591926</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5488</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MORON 4106</t>
+          <t>JUNCAL 1801</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804876042</t>
+          <t>804497961</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3083,7 +3091,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desplazar columna por entrada de vehiculos.</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3093,7 +3101,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3103,40 +3111,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.487352</v>
+        <v>-58.393185</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.627992</v>
+        <v>-34.593761</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3151,12 +3159,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3175,36 +3183,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.396135</v>
+        <v>-58.397031</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.624285</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5621</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>MORON 4106</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>804876042</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3219,7 +3227,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desplazar columna por entrada de vehiculos.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3243,26 +3251,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.401202</v>
+        <v>-58.487352</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.61683</v>
+        <v>-34.627992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DEAN FUNES 607</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3272,7 +3280,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805507316</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3287,12 +3295,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3311,36 +3319,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.406628</v>
+        <v>-58.396135</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.617946</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MONTEVIDEO 286</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805507389</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3379,26 +3387,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.389389</v>
+        <v>-58.401202</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.605604</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>DEAN FUNES 607</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3408,7 +3416,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805507316</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3423,7 +3431,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3438,7 +3446,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3447,36 +3455,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.395063</v>
+        <v>-58.406628</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.606257</v>
+        <v>-34.617946</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/21/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2979</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926475</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3491,7 +3499,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3506,7 +3514,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3515,36 +3523,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.407673</v>
+        <v>-58.395063</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.591006</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>5/21/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+          <t>SANTA FE AV. 2979</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926477</t>
+          <t>806926475</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3583,36 +3591,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.406566</v>
+        <v>-58.407673</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.595466</v>
+        <v>-34.591006</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/23/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MEXICO 3290</t>
+          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807005375</t>
+          <t>806926477</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3627,7 +3635,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3637,7 +3645,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3647,40 +3655,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.412417</v>
+        <v>-58.406566</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.619396</v>
+        <v>-34.595466</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3719,36 +3727,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.450724</v>
+        <v>-58.483203</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.567086</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3763,7 +3771,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3787,36 +3795,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.46522</v>
+        <v>-58.481483</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.556786</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>MEXICO 3290</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807005375</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3831,7 +3839,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3841,7 +3849,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3855,36 +3863,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.41193</v>
+        <v>-58.412417</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.626628</v>
+        <v>-34.619396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3923,36 +3931,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.482514</v>
+        <v>-58.450724</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.625307</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3967,7 +3975,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3977,7 +3985,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3987,30 +3995,30 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.42226</v>
+        <v>-58.46522</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.621605</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4020,7 +4028,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4035,7 +4043,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4045,7 +4053,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4059,36 +4067,36 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.416352</v>
+        <v>-58.41193</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.630143</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4103,7 +4111,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4127,36 +4135,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.362579</v>
+        <v>-58.482514</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.635096</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BONIFACIO, JOSE 2647</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807168099</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4171,7 +4179,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4181,7 +4189,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4191,40 +4199,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.464608</v>
+        <v>-58.42226</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.633383</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4239,7 +4247,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4249,7 +4257,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4259,82 +4267,490 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.461271</v>
+        <v>-58.416352</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.625615</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>5973</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PALOS 432</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807168105</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.362579</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.635096</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BONIFACIO, JOSE 2647</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>807168099</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.464608</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.633383</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5996</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BACACAY 2205</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>807187775</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.461271</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.625615</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>5998</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>6/4/2025</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>TRELLES, MANUEL R. 776</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>807187772</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M61" t="n">
         <v>-58.459293</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N61" t="n">
         <v>-34.617445</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-474</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Moreno 3292</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>807215603</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.412622</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.614144</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6095</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>VOLTAIRE 5985</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>807331684</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.438022</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.579157</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6088</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DUMONT, SANTOS 3682</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>807331703</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.448339</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.585091</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,27 +1900,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1950,45 +1950,45 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.397512</v>
+        <v>-58.436969</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.609923</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2023,40 +2023,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.436969</v>
+        <v>-58.391218</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.579977</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2091,40 +2091,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.391218</v>
+        <v>-58.4158</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.620237</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2163,36 +2163,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.4158</v>
+        <v>-58.460926</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.587493</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>ALSINA, VALENTIN AV. 1450</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803607792</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2227,40 +2227,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.460926</v>
+        <v>-58.438342</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.578223</v>
+        <v>-34.561655</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALSINA, VALENTIN AV. 1450</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803607792</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2275,17 +2275,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2295,40 +2295,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.438342</v>
+        <v>-58.478516</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.561655</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2367,36 +2367,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.478516</v>
+        <v>-58.487666</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.582841</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2435,36 +2435,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2503,16 +2503,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.426593</v>
+        <v>-58.484185</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.628211</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>CAMACUA 141</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309680</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2567,20 +2567,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.484185</v>
+        <v>-58.458015</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.582206</v>
+        <v>-34.629277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2590,17 +2590,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 2460</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804309662</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2635,20 +2635,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.399986</v>
+        <v>-58.442791</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.62359</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2658,17 +2658,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CAMACUA 141</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804309680</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2703,30 +2703,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.458015</v>
+        <v>-58.48396</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.629277</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2771,40 +2771,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.442791</v>
+        <v>-58.423996</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.569495</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2839,20 +2839,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.48396</v>
+        <v>-58.477988</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.582874</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2862,17 +2862,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2911,36 +2911,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.423996</v>
+        <v>-58.4716</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.594973</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5488</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>JUNCAL 1801</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804497961</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2975,40 +2975,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.477988</v>
+        <v>-58.393185</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.630001</v>
+        <v>-34.593761</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3047,36 +3047,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.4716</v>
+        <v>-58.397031</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.627623</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>5621</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JUNCAL 1801</t>
+          <t>MORON 4106</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804497961</t>
+          <t>804876042</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Desplazar columna por entrada de vehiculos.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3111,40 +3111,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.393185</v>
+        <v>-58.487352</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.593761</v>
+        <v>-34.627992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3183,36 +3183,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MORON 4106</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804876042</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desplazar columna por entrada de vehiculos.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3251,26 +3251,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.487352</v>
+        <v>-58.401202</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.627992</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>DEAN FUNES 607</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507316</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3319,26 +3319,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.396135</v>
+        <v>-58.406628</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.624285</v>
+        <v>-34.617946</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3387,36 +3387,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.401202</v>
+        <v>-58.395063</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.61683</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/21/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DEAN FUNES 607</t>
+          <t>SANTA FE AV. 2979</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805507316</t>
+          <t>806926475</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3455,36 +3455,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.406628</v>
+        <v>-58.407673</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.617946</v>
+        <v>-34.591006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/23/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926477</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3523,36 +3523,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.395063</v>
+        <v>-58.406566</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.606257</v>
+        <v>-34.595466</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/21/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2979</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926475</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3591,36 +3591,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.407673</v>
+        <v>-58.483203</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.591006</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926477</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3659,36 +3659,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.406566</v>
+        <v>-58.481483</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.595466</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>MEXICO 3290</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>807005375</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3723,40 +3723,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483203</v>
+        <v>-58.412417</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.545634</v>
+        <v>-34.619396</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3795,16 +3795,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MEXICO 3290</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807005375</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3859,40 +3859,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.412417</v>
+        <v>-58.46522</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.619396</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3927,40 +3927,40 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.450724</v>
+        <v>-58.41193</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.567086</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3999,26 +3999,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.46522</v>
+        <v>-58.482514</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.556786</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4067,16 +4067,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.41193</v>
+        <v>-58.42226</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.626628</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4086,17 +4086,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4131,40 +4131,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.482514</v>
+        <v>-58.416352</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.625307</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4199,40 +4199,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.42226</v>
+        <v>-58.362579</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.621605</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>BONIFACIO, JOSE 2647</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807168099</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4267,20 +4267,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.416352</v>
+        <v>-58.464608</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.630143</v>
+        <v>-34.633383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4290,17 +4290,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4339,16 +4339,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.362579</v>
+        <v>-58.461271</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.635096</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BONIFACIO, JOSE 2647</t>
+          <t>TRELLES, MANUEL R. 776</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168099</t>
+          <t>807187772</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4407,36 +4407,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.464608</v>
+        <v>-58.459293</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.633383</v>
+        <v>-34.617445</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-474</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Moreno 3292</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807215603</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4475,36 +4475,36 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.461271</v>
+        <v>-58.412622</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.625615</v>
+        <v>-34.614144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TRELLES, MANUEL R. 776</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187772</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4539,40 +4539,40 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.459293</v>
+        <v>-58.438022</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.617445</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-474</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Moreno 3292</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215603</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4611,16 +4611,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.412622</v>
+        <v>-58.448339</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.614144</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4630,19 +4630,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>807331684</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
           <t>PEBCOM</t>
@@ -4655,7 +4651,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4665,7 +4661,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4675,82 +4671,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.438022</v>
+        <v>-58.401624</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.579157</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>6088</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DUMONT, SANTOS 3682</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>807331703</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>-58.448339</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-34.585091</v>
+        <v>-34.612001</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4638,7 +4638,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>807458159</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>PEBCOM</t>
@@ -4679,6 +4683,74 @@
       </c>
       <c r="N63" t="n">
         <v>-34.612001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6137</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6/12/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LA PLATA AV. 1058</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>807458383</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.426431</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.627954</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,27 +712,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4/10/2024</t>
+          <t>5/5/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BULNES 2012</t>
+          <t>ARREGUI 3910</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>784675885</t>
+          <t>800645483</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -745,11 +745,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Falta traspaso y retiro</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>1</t>
@@ -767,40 +763,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.411461</v>
+        <v>-58.497719</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.587856</v>
+        <v>-34.612301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>2296</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/5/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ARREGUI 3910</t>
+          <t>Arenales 2776</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>800645483</t>
+          <t>790836584</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -813,7 +809,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Equipo de TLC ya traspasad solo Retirar Columna</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>1</t>
@@ -826,7 +826,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -835,26 +835,26 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.497719</v>
+        <v>-58.404865</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.612301</v>
+        <v>-34.592027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7/2/2024</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Arenales 2776</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>790836584</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasad solo Retirar Columna</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -903,36 +903,36 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.404865</v>
+        <v>-58.40589</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.592027</v>
+        <v>-34.584156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>GUEVARA 687</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>792041586</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Falta traspaso y retiro</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.40589</v>
+        <v>-58.453307</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.584156</v>
+        <v>-34.585706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GUEVARA 687</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>792041586</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Falta traspaso y retiro</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1039,36 +1039,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.453307</v>
+        <v>-58.498448</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.585706</v>
+        <v>-34.595287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1107,36 +1107,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.498448</v>
+        <v>-58.413803</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.595287</v>
+        <v>-34.590308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>9/9/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>ANDALGALA 2590</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>796141865</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1175,36 +1175,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.413803</v>
+        <v>-58.502411</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.590308</v>
+        <v>-34.665815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ANDALGALA 2590</t>
+          <t>Anchorena Tomás Manuel 1288</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>796141865</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+          <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1239,30 +1239,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.502411</v>
+        <v>-58.406235</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.665815</v>
+        <v>-34.594382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1311,26 +1311,26 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.406235</v>
+        <v>-58.405961</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.594382</v>
+        <v>-34.594038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1373,42 +1373,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.405961</v>
+        <v>-58.388894</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.594038</v>
+        <v>-34.587957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1423,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1433,46 +1429,50 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M15" t="n">
-        <v>-58.388894</v>
+        <v>-58.47874</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.587957</v>
+        <v>-34.61462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>GUIDO 1980</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>804568874</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1485,11 +1485,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Columna con base picada</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>1</t>
@@ -1502,45 +1498,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.47874</v>
+        <v>-58.391696</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.61462</v>
+        <v>-34.588656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GUIDO 1980</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804568874</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1553,7 +1545,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>1</t>
@@ -1561,7 +1557,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1571,16 +1567,16 @@
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.391696</v>
+        <v>-58.477712</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.588656</v>
+        <v>-34.549447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1590,17 +1586,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PINTO 3910</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799244296</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1615,7 +1611,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1633,38 +1629,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M18" t="n">
-        <v>-58.477712</v>
+        <v>-58.426169</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.549447</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>AVALOS 1487</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>801644860</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1703,26 +1703,26 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.426169</v>
+        <v>-58.478352</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.579697</v>
+        <v>-34.58305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1771,36 +1771,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.478352</v>
+        <v>-58.44244</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.58305</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1835,40 +1835,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.44244</v>
+        <v>-58.436969</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.593883</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1881,36 +1881,52 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Inclinado</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M22" t="n">
-        <v>-58.447022</v>
+        <v>-58.391218</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.575873</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1920,7 +1936,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1935,7 +1951,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1959,36 +1975,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.436969</v>
+        <v>-58.4158</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.579977</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2003,7 +2019,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2023,40 +2039,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.391218</v>
+        <v>-58.460926</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.620237</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2071,12 +2087,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2091,40 +2107,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.4158</v>
+        <v>-58.478516</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.587493</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2139,60 +2155,60 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.460926</v>
+        <v>-58.487666</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.578223</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALSINA, VALENTIN AV. 1450</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803607792</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2207,7 +2223,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2217,7 +2233,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2227,30 +2243,30 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.438342</v>
+        <v>-58.426593</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.561655</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2260,7 +2276,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2275,12 +2291,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2299,36 +2315,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.478516</v>
+        <v>-58.484185</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.582841</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2343,12 +2359,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2358,7 +2374,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2367,36 +2383,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.487666</v>
+        <v>-58.442791</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.649704</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2411,7 +2427,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2421,7 +2437,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2435,36 +2451,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.426593</v>
+        <v>-58.48396</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.628211</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2489,7 +2505,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2499,40 +2515,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.484185</v>
+        <v>-58.423996</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.582206</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CAMACUA 141</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309680</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2547,7 +2563,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2557,7 +2573,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2571,36 +2587,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.458015</v>
+        <v>-58.477988</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.629277</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2635,40 +2651,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.442791</v>
+        <v>-58.4716</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.569495</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2683,7 +2699,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2693,7 +2709,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2703,40 +2719,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.48396</v>
+        <v>-58.397031</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.582874</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2751,17 +2767,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2775,36 +2791,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.423996</v>
+        <v>-58.396135</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.594973</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2843,36 +2859,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.477988</v>
+        <v>-58.401202</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.630001</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2887,7 +2903,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2902,7 +2918,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,36 +2927,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.4716</v>
+        <v>-58.395063</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.627623</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JUNCAL 1801</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804497961</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2955,7 +2971,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2965,7 +2981,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2975,40 +2991,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.393185</v>
+        <v>-58.483203</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.593761</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3023,7 +3039,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3047,36 +3063,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.397031</v>
+        <v>-58.481483</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.591926</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MORON 4106</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804876042</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3091,7 +3107,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desplazar columna por entrada de vehiculos.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3115,36 +3131,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.487352</v>
+        <v>-58.450724</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.627992</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3159,12 +3175,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3183,36 +3199,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.396135</v>
+        <v>-58.46522</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.624285</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3227,7 +3243,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3247,40 +3263,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.401202</v>
+        <v>-58.41193</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.61683</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DEAN FUNES 607</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805507316</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3319,36 +3335,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.406628</v>
+        <v>-58.482514</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.617946</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3363,7 +3379,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3373,50 +3389,50 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.395063</v>
+        <v>-58.42226</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.606257</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/21/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2979</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926475</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3431,7 +3447,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3441,7 +3457,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3451,40 +3467,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.407673</v>
+        <v>-58.416352</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.591006</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MANSILLA, LUCIO NORBERTO, GENERAL 2794</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926477</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3499,7 +3515,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3523,36 +3539,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.406566</v>
+        <v>-58.362579</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.595466</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3591,36 +3607,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.483203</v>
+        <v>-58.461271</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.545634</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3635,7 +3651,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3645,7 +3661,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3655,40 +3671,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.481483</v>
+        <v>-58.438022</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.544341</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MEXICO 3290</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807005375</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3703,7 +3719,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3713,7 +3729,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3723,40 +3739,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.412417</v>
+        <v>-58.448339</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.619396</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3771,7 +3787,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3795,36 +3811,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.450724</v>
+        <v>-58.401624</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.567086</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3839,7 +3855,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3859,897 +3875,13 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.46522</v>
+        <v>-58.426431</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.556786</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>5940</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>5/29/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SANCHEZ DE LORIA 1406</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>807044148</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Columna con base corroída</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>-58.41193</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-34.626628</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>6/2/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Joaquín V González 732</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>807129355</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>-58.482514</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-34.625307</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>5951</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>6/2/2025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>807129364</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Reparar rienda</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Tensor</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>-58.42226</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-34.621605</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>5970</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6/2/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>PAVON AV. 3665</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>807129382</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.416352</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.630143</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>5973</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>6/4/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PALOS 432</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>807168105</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>-58.362579</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-34.635096</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>5989</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>6/4/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>BONIFACIO, JOSE 2647</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>807168099</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.464608</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-34.633383</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>5996</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>6/4/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>BACACAY 2205</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>807187775</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-58.461271</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-34.625615</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>5998</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>6/4/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>TRELLES, MANUEL R. 776</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>807187772</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.459293</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.617445</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>-474</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Moreno 3292</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>807215603</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>-58.412622</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-34.614144</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6095</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>VOLTAIRE 5985</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>807331684</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>-58.438022</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-34.579157</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>6088</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DUMONT, SANTOS 3682</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>807331703</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>-58.448339</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-34.585091</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>6075</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ALBERTI 191</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>807458159</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>-58.401624</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-34.612001</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>6137</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>6/12/2025</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LA PLATA AV. 1058</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>807458383</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>-58.426431</v>
-      </c>
-      <c r="N64" t="n">
         <v>-34.627954</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,17 +776,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7/2/2024</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Arenales 2776</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>790836584</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasad solo Retirar Columna</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -835,36 +835,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.404865</v>
+        <v>-58.40589</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.592027</v>
+        <v>-34.584156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>GUEVARA 687</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>792041586</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Falta traspaso y retiro</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -903,16 +903,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.40589</v>
+        <v>-58.453307</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.584156</v>
+        <v>-34.585706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GUEVARA 687</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>792041586</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Falta traspaso y retiro</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -971,36 +971,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.453307</v>
+        <v>-58.498448</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.585706</v>
+        <v>-34.595287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1039,36 +1039,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.498448</v>
+        <v>-58.413803</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.595287</v>
+        <v>-34.590308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>9/9/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>ANDALGALA 2590</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>796141865</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1107,36 +1107,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.413803</v>
+        <v>-58.502411</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590308</v>
+        <v>-34.665815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANDALGALA 2590</t>
+          <t>Anchorena Tomás Manuel 1288</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>796141865</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+          <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1171,30 +1171,30 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.502411</v>
+        <v>-58.406235</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.665815</v>
+        <v>-34.594382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1243,26 +1243,26 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.406235</v>
+        <v>-58.405961</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.594382</v>
+        <v>-34.594038</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1305,42 +1305,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.405961</v>
+        <v>-58.388894</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.594038</v>
+        <v>-34.587957</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,46 +1361,50 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>-58.388894</v>
+        <v>-58.47874</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.587957</v>
+        <v>-34.61462</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1429,50 +1429,46 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.47874</v>
+        <v>-58.477712</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.61462</v>
+        <v>-34.549447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GUIDO 1980</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804568874</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1485,7 +1481,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>1</t>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1501,38 +1501,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M16" t="n">
-        <v>-58.391696</v>
+        <v>-58.426169</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.588656</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PINTO 3910</t>
+          <t>AVALOS 1487</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799244296</t>
+          <t>801644860</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1547,7 +1551,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1557,7 +1561,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1565,38 +1569,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M17" t="n">
-        <v>-58.477712</v>
+        <v>-58.478352</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.549447</v>
+        <v>-34.58305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1611,7 +1619,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1621,7 +1629,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1635,36 +1643,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.426169</v>
+        <v>-58.44244</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.579697</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,40 +1707,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.478352</v>
+        <v>-58.436969</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.58305</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1747,7 +1755,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1757,7 +1765,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1771,26 +1779,26 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.44244</v>
+        <v>-58.391218</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.593883</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1800,7 +1808,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1815,7 +1823,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1839,36 +1847,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.436969</v>
+        <v>-58.4158</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.579977</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1883,7 +1891,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1903,40 +1911,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.391218</v>
+        <v>-58.460926</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.620237</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1951,12 +1959,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1971,40 +1979,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.4158</v>
+        <v>-58.478516</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.587493</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2019,60 +2027,60 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.460926</v>
+        <v>-58.487666</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.578223</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2087,17 +2095,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2111,36 +2119,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.478516</v>
+        <v>-58.426593</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.582841</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2155,12 +2163,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2170,7 +2178,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2179,36 +2187,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.487666</v>
+        <v>-58.484185</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.649704</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2223,7 +2231,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2233,7 +2241,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2247,16 +2255,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.426593</v>
+        <v>-58.442791</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.628211</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2266,7 +2274,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2276,7 +2284,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2301,7 +2309,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2315,26 +2323,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.484185</v>
+        <v>-58.48396</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.582206</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2344,7 +2352,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2359,7 +2367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2369,7 +2377,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2379,40 +2387,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.442791</v>
+        <v>-58.423996</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.569495</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2427,7 +2435,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2437,7 +2445,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2447,20 +2455,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.48396</v>
+        <v>-58.477988</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.582874</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2470,17 +2478,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2495,7 +2503,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2505,7 +2513,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2519,36 +2527,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.423996</v>
+        <v>-58.4716</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.594973</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2587,36 +2595,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.477988</v>
+        <v>-58.397031</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.630001</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2631,12 +2639,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2655,36 +2663,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.4716</v>
+        <v>-58.396135</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.627623</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2723,26 +2731,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.397031</v>
+        <v>-58.401202</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.591926</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2752,7 +2760,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2767,12 +2775,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2782,7 +2790,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2791,36 +2799,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.396135</v>
+        <v>-58.395063</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.624285</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2859,16 +2867,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.401202</v>
+        <v>-58.483203</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61683</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2878,17 +2886,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2903,7 +2911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2918,7 +2926,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2927,36 +2935,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.395063</v>
+        <v>-58.481483</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.606257</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2995,36 +3003,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.483203</v>
+        <v>-58.450724</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.545634</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3039,7 +3047,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3063,36 +3071,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.481483</v>
+        <v>-58.46522</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.544341</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3107,7 +3115,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3127,40 +3135,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.450724</v>
+        <v>-58.41193</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.567086</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3199,26 +3207,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.46522</v>
+        <v>-58.482514</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.556786</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3228,7 +3236,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3243,7 +3251,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3253,7 +3261,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3267,16 +3275,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.41193</v>
+        <v>-58.42226</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.626628</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3286,17 +3294,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3311,7 +3319,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3321,7 +3329,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3331,40 +3339,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.482514</v>
+        <v>-58.416352</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.625307</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3379,7 +3387,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3389,7 +3397,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3399,40 +3407,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.42226</v>
+        <v>-58.362579</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.621605</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3447,7 +3455,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3457,7 +3465,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3467,40 +3475,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.416352</v>
+        <v>-58.461271</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.630143</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3515,7 +3523,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3525,7 +3533,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3535,40 +3543,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.362579</v>
+        <v>-58.438022</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.635096</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3607,16 +3615,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.461271</v>
+        <v>-58.448339</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.625615</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3626,17 +3634,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3651,7 +3659,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3661,7 +3669,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3671,40 +3679,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.438022</v>
+        <v>-58.401624</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.579157</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3719,7 +3727,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3739,149 +3747,13 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.448339</v>
+        <v>-58.426431</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.585091</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>6075</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>ALBERTI 191</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>807458159</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>-58.401624</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-34.612001</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>6137</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6/12/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>LA PLATA AV. 1058</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>807458383</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>-58.426431</v>
-      </c>
-      <c r="N51" t="n">
         <v>-34.627954</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/1/2024</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AYACUCHO 1307</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>781141479</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Colocar terminal para traspasar el nodo</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -567,36 +567,36 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.395498</v>
+        <v>-58.426431</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.59322</v>
+        <v>-34.627954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6092</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3/15/2024</t>
+          <t>6/10/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASUNCION 2783</t>
+          <t>CIUDAD DE LA PAZ 3358</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>788792584</t>
+          <t>807458266</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aplomar Columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -631,40 +631,40 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.495259</v>
+        <v>-58.467682</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.59102</v>
+        <v>-34.551767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,60 +679,60 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.406882</v>
+        <v>-58.438022</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.588287</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/5/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARREGUI 3910</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>800645483</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -745,7 +745,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>1</t>
@@ -767,36 +771,36 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.497719</v>
+        <v>-58.448339</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.612301</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -811,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -826,7 +830,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -835,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.40589</v>
+        <v>-58.401624</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.584156</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>-471</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUEVARA 687</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>792041586</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -879,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Falta traspaso y retiro</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -903,36 +907,36 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.453307</v>
+        <v>-58.486716</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.585706</v>
+        <v>-34.550004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -962,7 +966,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -971,36 +975,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.498448</v>
+        <v>-58.458518</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.595287</v>
+        <v>-34.564693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1030,7 +1034,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1039,36 +1043,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.413803</v>
+        <v>-58.362579</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.590308</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANDALGALA 2590</t>
+          <t>General Enrique Martinez 350</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>796141865</t>
+          <t>807168181</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1107,36 +1111,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.502411</v>
+        <v>-58.448034</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.665815</v>
+        <v>-34.579933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1171,40 +1175,40 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.406235</v>
+        <v>-58.445558</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.594382</v>
+        <v>-34.581191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1239,40 +1243,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.405961</v>
+        <v>-58.446125</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.594038</v>
+        <v>-34.580819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1287,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1297,7 +1301,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1305,38 +1309,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M13" t="n">
-        <v>-58.388894</v>
+        <v>-58.447732</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.587957</v>
+        <v>-34.580408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,7 +1374,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1375,36 +1383,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.47874</v>
+        <v>-58.461271</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.61462</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PINTO 3910</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799244296</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1429,7 +1437,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1437,38 +1445,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M15" t="n">
-        <v>-58.477712</v>
+        <v>-58.396424</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.549447</v>
+        <v>-34.602218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1483,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1493,7 +1505,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1503,40 +1515,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.426169</v>
+        <v>-58.404871</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.579697</v>
+        <v>-34.619205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1551,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1571,40 +1583,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.478352</v>
+        <v>-58.420269</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.58305</v>
+        <v>-34.574122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1619,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1639,40 +1651,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.44244</v>
+        <v>-58.459566</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.593883</v>
+        <v>-34.634615</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1711,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.436969</v>
+        <v>-58.482514</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.579977</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1755,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,7 +1777,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1779,36 +1791,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.391218</v>
+        <v>-58.42226</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.620237</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1823,7 +1835,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1833,7 +1845,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1843,40 +1855,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.4158</v>
+        <v>-58.416352</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.587493</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1891,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1901,7 +1913,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1911,40 +1923,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.460926</v>
+        <v>-58.41193</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.578223</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1959,12 +1971,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1979,40 +1991,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.478516</v>
+        <v>-58.450724</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.582841</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2027,12 +2039,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2042,45 +2054,45 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.487666</v>
+        <v>-58.46522</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.649704</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2095,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2105,50 +2117,50 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.426593</v>
+        <v>-58.395063</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.628211</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2163,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2183,40 +2195,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.484185</v>
+        <v>-58.481483</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.582206</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2251,40 +2263,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.442791</v>
+        <v>-58.483203</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.569495</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2299,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2309,7 +2321,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2319,40 +2331,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.48396</v>
+        <v>-58.401202</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.582874</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2367,17 +2379,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2391,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.423996</v>
+        <v>-58.396135</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594973</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2459,16 +2471,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.477988</v>
+        <v>-58.397031</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.630001</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2478,17 +2490,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2503,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2513,7 +2525,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2527,36 +2539,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.4716</v>
+        <v>-58.423996</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.627623</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2595,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.397031</v>
+        <v>-58.477988</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.591926</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2639,12 +2651,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2663,36 +2675,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.396135</v>
+        <v>-58.4716</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.624285</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2707,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2727,40 +2739,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.401202</v>
+        <v>-58.484185</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.61683</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2775,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2790,45 +2802,45 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.395063</v>
+        <v>-58.442791</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.606257</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2843,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2853,7 +2865,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2863,40 +2875,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.483203</v>
+        <v>-58.48396</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.545634</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2911,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2921,7 +2933,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2931,40 +2943,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.481483</v>
+        <v>-58.426593</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.544341</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2979,12 +2991,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2994,45 +3006,45 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.450724</v>
+        <v>-58.487666</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.567086</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3047,12 +3059,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3067,40 +3079,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.46522</v>
+        <v>-58.478516</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.556786</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3115,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3125,7 +3137,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3135,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.41193</v>
+        <v>-58.460926</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.626628</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3183,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3207,36 +3219,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.482514</v>
+        <v>-58.4158</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.625307</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3251,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3261,7 +3273,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3275,36 +3287,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.42226</v>
+        <v>-58.391218</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.621605</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>VOLTAIRE 5867</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>802774538</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3319,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3329,7 +3341,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3339,40 +3351,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.416352</v>
+        <v>-58.436969</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.630143</v>
+        <v>-34.579977</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3387,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3407,40 +3419,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.362579</v>
+        <v>-58.44244</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.635096</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>AVALOS 1487</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>801644860</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3475,40 +3487,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.461271</v>
+        <v>-58.478352</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.625615</v>
+        <v>-34.58305</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3523,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3541,42 +3553,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>-58.438022</v>
+        <v>-58.477712</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.579157</v>
+        <v>-34.549447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3591,7 +3599,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3601,7 +3609,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3611,40 +3619,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.448339</v>
+        <v>-58.426169</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.585091</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3659,7 +3667,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3674,7 +3682,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3683,36 +3691,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.401624</v>
+        <v>-58.47874</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.612001</v>
+        <v>-34.61462</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3727,7 +3735,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3737,7 +3745,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3745,16 +3753,756 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>-58.388894</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.587957</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9/26/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Anchorena Tomas Manuel de 1324</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>797379000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pendiente de retiro la vieja</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>-58.426431</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.627954</v>
+      <c r="M50" t="n">
+        <v>-58.405961</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.594038</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9/10/2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Anchorena Tomás Manuel 1288</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>796212149</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Faltan traspasar redes y desmontar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.406235</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.594382</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9/9/2024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ANDALGALA 2590</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>796141865</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.502411</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.665815</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9/5/2024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Bulnes 1810</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>796016024</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.413803</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.590308</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2779</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>8/6/2024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GUEVARA 687</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>792041586</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Falta traspaso y retiro</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-58.453307</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.585706</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2805</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8/6/2024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MCAL SOLANO LOPEZ 3110</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>792101640</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.498448</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.595287</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2463</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7/15/2024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>795698153</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.40589</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.584156</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5/5/2024</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ARREGUI 3910</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>800645483</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.497719</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.612301</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4/4/2024</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>784804268</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.406882</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.588287</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6092</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3/15/2024</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ASUNCION 2783</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>788792584</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Aplomar Columna</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.495259</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.59102</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2/1/2024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AYACUCHO 1307</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>781141479</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Colocar terminal para traspasar el nodo</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.395498</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.59322</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>2/1/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>AYACUCHO 1307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>781141479</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Colocar terminal para traspasar el nodo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -567,36 +567,36 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.426431</v>
+        <v>-58.395498</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.627954</v>
+        <v>-34.59322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>6092</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/10/2025</t>
+          <t>3/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 3358</t>
+          <t>ASUNCION 2783</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807458266</t>
+          <t>788792584</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar Columna</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -631,40 +631,40 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.467682</v>
+        <v>-58.495259</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.551767</v>
+        <v>-34.59102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>5/5/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>ARREGUI 3910</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>800645483</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,11 +677,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>1</t>
@@ -689,7 +685,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,30 +695,30 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.438022</v>
+        <v>-58.497719</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.579157</v>
+        <v>-34.612301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>GUEVARA 687</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -732,7 +728,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>792041586</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Falta traspaso y retiro</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -771,36 +767,36 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.448339</v>
+        <v>-58.453307</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.585091</v>
+        <v>-34.585706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>9/9/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>ANDALGALA 2590</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>796141865</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,7 +811,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -839,36 +835,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.401624</v>
+        <v>-58.502411</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.612001</v>
+        <v>-34.665815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-471</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>Anchorena Tomás Manuel 1288</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -883,7 +879,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -903,40 +899,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.486716</v>
+        <v>-58.406235</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.550004</v>
+        <v>-34.594382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +947,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -971,40 +967,40 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.458518</v>
+        <v>-58.405961</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.564693</v>
+        <v>-34.594038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1029,7 +1025,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1037,42 +1033,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.362579</v>
+        <v>-58.388894</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.635096</v>
+        <v>-34.587957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 350</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>807168181</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,7 +1079,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1102,7 +1094,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1111,36 +1103,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.448034</v>
+        <v>-58.47874</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.579933</v>
+        <v>-34.61462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1155,7 +1147,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1165,7 +1157,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1173,42 +1165,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.445558</v>
+        <v>-58.477712</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.581191</v>
+        <v>-34.549447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1211,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>*Realizar traspasos y retiro de columna vieja*</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1233,7 +1221,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,40 +1231,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.446125</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.580819</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>AVALOS 1487</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>801644860</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1315,36 +1303,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.447732</v>
+        <v>-58.478352</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.580408</v>
+        <v>-34.58305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1347,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1379,40 +1367,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.461271</v>
+        <v>-58.44244</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.625615</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,7 +1415,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,7 +1425,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1447,40 +1435,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.396424</v>
+        <v>-58.391218</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.602218</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1483,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1519,36 +1507,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.404871</v>
+        <v>-58.4158</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.619205</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1551,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1573,7 +1561,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1587,36 +1575,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.420269</v>
+        <v>-58.460926</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574122</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,12 +1619,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1651,40 +1639,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.459566</v>
+        <v>-58.478516</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.634615</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,12 +1687,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1714,45 +1702,45 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.482514</v>
+        <v>-58.487666</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.625307</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,7 +1755,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1791,36 +1779,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.42226</v>
+        <v>-58.426593</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.621605</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1845,7 +1833,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1859,36 +1847,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.416352</v>
+        <v>-58.484185</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.630143</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,7 +1891,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1927,36 +1915,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.41193</v>
+        <v>-58.442791</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.626628</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1959,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1981,7 +1969,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1991,40 +1979,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.450724</v>
+        <v>-58.48396</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.567086</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +2027,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2049,7 +2037,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2063,36 +2051,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.46522</v>
+        <v>-58.423996</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.556786</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2095,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2122,7 +2110,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2131,36 +2119,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.395063</v>
+        <v>-58.477988</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.606257</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2163,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2199,36 +2187,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.481483</v>
+        <v>-58.4716</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.544341</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2267,26 +2255,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.483203</v>
+        <v>-58.397031</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.545634</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2296,7 +2284,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,12 +2299,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2335,26 +2323,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.401202</v>
+        <v>-58.396135</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61683</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2364,7 +2352,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,12 +2367,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2403,36 +2391,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2471,36 +2459,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.397031</v>
+        <v>-58.483203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.591926</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2503,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2525,7 +2513,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2539,36 +2527,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.423996</v>
+        <v>-58.481483</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.594973</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2607,36 +2595,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.477988</v>
+        <v>-58.450724</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.630001</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2639,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2671,40 +2659,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.4716</v>
+        <v>-58.41193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.627623</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2707,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2739,40 +2727,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.484185</v>
+        <v>-58.482514</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.582206</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2775,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,7 +2785,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2811,36 +2799,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.442791</v>
+        <v>-58.42226</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.569495</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2879,36 +2867,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.48396</v>
+        <v>-58.416352</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.582874</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2933,7 +2921,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2943,40 +2931,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.426593</v>
+        <v>-58.396424</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.628211</v>
+        <v>-34.602218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,12 +2979,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3006,45 +2994,45 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.487666</v>
+        <v>-58.404871</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.649704</v>
+        <v>-34.619205</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,12 +3047,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3079,40 +3067,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.478516</v>
+        <v>-58.420269</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.582841</v>
+        <v>-34.574122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3115,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3137,7 +3125,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3151,36 +3139,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.460926</v>
+        <v>-58.459566</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.578223</v>
+        <v>-34.634615</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3183,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3219,36 +3207,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.4158</v>
+        <v>-58.362579</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.587493</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>General Enrique Martinez 350</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>807168181</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3251,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3273,7 +3261,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3283,40 +3271,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.391218</v>
+        <v>-58.448034</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.620237</v>
+        <v>-34.579933</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5867</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802774538</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3355,36 +3343,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.436969</v>
+        <v>-58.445558</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.579977</v>
+        <v>-34.581191</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3387,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3419,40 +3407,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.44244</v>
+        <v>-58.446125</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.593883</v>
+        <v>-34.580819</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3491,36 +3479,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.478352</v>
+        <v>-58.447732</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.58305</v>
+        <v>-34.580408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PINTO 3910</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>799244296</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3523,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3545,7 +3533,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3553,38 +3541,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>-58.477712</v>
+        <v>-58.461271</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.549447</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>-471</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3599,7 +3591,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3609,7 +3601,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3619,40 +3611,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.426169</v>
+        <v>-58.486716</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.579697</v>
+        <v>-34.550004</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3667,7 +3659,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3682,7 +3674,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3691,36 +3683,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.47874</v>
+        <v>-58.458518</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.61462</v>
+        <v>-34.564693</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3735,7 +3727,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3753,38 +3745,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M49" t="n">
-        <v>-58.388894</v>
+        <v>-58.438022</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.587957</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,7 +3795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3819,40 +3815,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.405961</v>
+        <v>-58.448339</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.594038</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3867,7 +3863,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3887,40 +3883,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.406235</v>
+        <v>-58.401624</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.594382</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>6/10/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ANDALGALA 2590</t>
+          <t>CIUDAD DE LA PAZ 3358</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>796141865</t>
+          <t>807458266</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3935,7 +3931,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3959,36 +3955,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.502411</v>
+        <v>-58.467682</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.665815</v>
+        <v>-34.551767</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4003,7 +3999,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4018,491 +4014,19 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.413803</v>
+        <v>-58.426431</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.590308</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>8/6/2024</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>GUEVARA 687</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>792041586</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Falta traspaso y retiro</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>-58.453307</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-34.585706</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2805</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>8/6/2024</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>792101640</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.498448</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.595287</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2463</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>7/15/2024</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>795698153</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>-58.40589</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-34.584156</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>5/5/2024</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ARREGUI 3910</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>800645483</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.497719</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-34.612301</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1497</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>4/4/2024</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>784804268</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-58.406882</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-34.588287</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>6092</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3/15/2024</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ASUNCION 2783</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>788792584</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Aplomar Columna</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.495259</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.59102</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>826</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>AYACUCHO 1307</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>781141479</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Colocar terminal para traspasar el nodo</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>-58.395498</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-34.59322</v>
+        <v>-34.627954</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2604,27 +2604,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2659,40 +2659,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.41193</v>
+        <v>-58.46522</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.626628</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2727,20 +2727,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.482514</v>
+        <v>-58.41193</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.625307</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>Joaquín V González 732</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>807129355</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2795,20 +2795,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.42226</v>
+        <v>-58.482514</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.621605</v>
+        <v>-34.625307</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>BOCAYUVA, QUINTINO 805</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807129364</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2867,36 +2867,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.416352</v>
+        <v>-58.42226</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.630143</v>
+        <v>-34.621605</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2931,20 +2931,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.396424</v>
+        <v>-58.416352</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.602218</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.404871</v>
+        <v>-58.396424</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.619205</v>
+        <v>-34.602218</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3022,17 +3022,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3071,16 +3071,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.420269</v>
+        <v>-58.404871</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.574122</v>
+        <v>-34.619205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3139,36 +3139,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.459566</v>
+        <v>-58.420269</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.634615</v>
+        <v>-34.574122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3207,16 +3207,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.362579</v>
+        <v>-58.459566</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.635096</v>
+        <v>-34.634615</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 350</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807168181</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,16 +3275,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.448034</v>
+        <v>-58.362579</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.579933</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 350</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168181</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3343,16 +3343,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.445558</v>
+        <v>-58.448034</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.581191</v>
+        <v>-34.579933</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.446125</v>
+        <v>-58.445558</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.580819</v>
+        <v>-34.581191</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3475,20 +3475,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.447732</v>
+        <v>-58.446125</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.580408</v>
+        <v>-34.580819</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3498,17 +3498,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3543,40 +3543,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.461271</v>
+        <v>-58.447732</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.625615</v>
+        <v>-34.580408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-471</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3615,36 +3615,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.486716</v>
+        <v>-58.461271</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.550004</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>-471</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3683,36 +3683,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.458518</v>
+        <v>-58.486716</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.564693</v>
+        <v>-34.550004</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3747,20 +3747,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.438022</v>
+        <v>-58.458518</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.579157</v>
+        <v>-34.564693</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3770,17 +3770,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3815,20 +3815,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.448339</v>
+        <v>-58.438022</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.585091</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3838,17 +3838,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3887,36 +3887,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.401624</v>
+        <v>-58.448339</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.612001</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/10/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 3358</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807458266</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3955,77 +3955,145 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.467682</v>
+        <v>-58.401624</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.551767</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>-475</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6/10/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CIUDAD DE LA PAZ 3358</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>807458266</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.467682</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.551767</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>6137</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>6/12/2025</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>LA PLATA AV. 1058</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>807458383</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M54" t="n">
         <v>-58.426431</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N54" t="n">
         <v>-34.627954</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,6 +4097,74 @@
         <v>-34.627954</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>-483</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Arcos 4326</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807605744</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.469257</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.542018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,17 +1244,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1303,36 +1303,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.478352</v>
+        <v>-58.44244</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.58305</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1371,36 +1371,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.44244</v>
+        <v>-58.391218</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.593883</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1435,40 +1435,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.391218</v>
+        <v>-58.4158</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.620237</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1507,26 +1507,26 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.4158</v>
+        <v>-58.460926</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.587493</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1571,40 +1571,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.460926</v>
+        <v>-58.478516</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.578223</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1643,36 +1643,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.478516</v>
+        <v>-58.487666</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.582841</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1687,22 +1687,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1711,36 +1711,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.426593</v>
+        <v>-58.484185</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.628211</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1798,17 +1798,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.484185</v>
+        <v>-58.442791</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.582206</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1915,36 +1915,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.442791</v>
+        <v>-58.48396</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.569495</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1979,20 +1979,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.48396</v>
+        <v>-58.423996</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.582874</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.423996</v>
+        <v>-58.477988</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.594973</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2119,36 +2119,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.477988</v>
+        <v>-58.4716</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.630001</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2187,36 +2187,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.4716</v>
+        <v>-58.397031</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.627623</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2255,26 +2255,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2323,36 +2323,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2391,26 +2391,26 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.401202</v>
+        <v>-58.483203</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.61683</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2459,36 +2459,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.483203</v>
+        <v>-58.481483</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.545634</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2527,16 +2527,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2595,36 +2595,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2659,30 +2659,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2731,36 +2731,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.41193</v>
+        <v>-58.416352</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.626628</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Joaquín V González 732</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807129355</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,36 +2799,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.482514</v>
+        <v>-58.396424</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.625307</v>
+        <v>-34.602218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOCAYUVA, QUINTINO 805</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807129364</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2863,40 +2863,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.42226</v>
+        <v>-58.404871</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.621605</v>
+        <v>-34.619205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2931,20 +2931,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.416352</v>
+        <v>-58.420269</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.630143</v>
+        <v>-34.574122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3003,36 +3003,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.396424</v>
+        <v>-58.459566</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.602218</v>
+        <v>-34.634615</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3071,36 +3071,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.404871</v>
+        <v>-58.362579</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.619205</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>General Enrique Martinez 350</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807168181</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3139,36 +3139,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.420269</v>
+        <v>-58.448034</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.574122</v>
+        <v>-34.579933</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3207,16 +3207,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.459566</v>
+        <v>-58.445558</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.634615</v>
+        <v>-34.581191</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,16 +3275,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.362579</v>
+        <v>-58.446125</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.635096</v>
+        <v>-34.580819</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 350</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807168181</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3339,20 +3339,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.448034</v>
+        <v>-58.447732</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.579933</v>
+        <v>-34.580408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3411,36 +3411,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.445558</v>
+        <v>-58.461271</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.581191</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-471</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3479,26 +3479,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.446125</v>
+        <v>-58.486716</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.580819</v>
+        <v>-34.550004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3543,40 +3543,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.447732</v>
+        <v>-58.458518</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.580408</v>
+        <v>-34.564693</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3611,40 +3611,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.461271</v>
+        <v>-58.438022</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.625615</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-471</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3683,36 +3683,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.486716</v>
+        <v>-58.448339</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.550004</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3751,36 +3751,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.458518</v>
+        <v>-58.401624</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.564693</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/10/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>CIUDAD DE LA PAZ 3358</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>807458266</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3815,40 +3815,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.438022</v>
+        <v>-58.467682</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.579157</v>
+        <v>-34.551767</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3883,40 +3883,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.448339</v>
+        <v>-58.426431</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.585091</v>
+        <v>-34.627954</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3951,42 +3951,38 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/10/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 3358</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>807458266</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>PEBCOM</t>
@@ -4023,38 +4019,34 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.467682</v>
+        <v>-58.395688</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.551767</v>
+        <v>-34.592023</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>807458383</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>PEBCOM</t>
@@ -4067,7 +4059,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4087,82 +4079,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.426431</v>
+        <v>-58.402745</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.627954</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>-483</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6/18/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Arcos 4326</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>807605744</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.469257</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -3982,7 +3982,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>807763000</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>PEBCOM</t>
@@ -4046,7 +4050,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>807763057</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>PEBCOM</t>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -1176,27 +1176,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1235,36 +1235,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.44244</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1303,36 +1303,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.44244</v>
+        <v>-58.391218</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.593883</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1367,40 +1367,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.391218</v>
+        <v>-58.4158</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.620237</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1439,26 +1439,26 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.4158</v>
+        <v>-58.460926</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.587493</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1483,17 +1483,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1503,40 +1503,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.460926</v>
+        <v>-58.478516</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.578223</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1575,36 +1575,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.478516</v>
+        <v>-58.487666</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.582841</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1619,22 +1619,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1643,36 +1643,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.426593</v>
+        <v>-58.484185</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.628211</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.484185</v>
+        <v>-58.442791</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.582206</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1798,17 +1798,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1847,36 +1847,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.442791</v>
+        <v>-58.48396</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.569495</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1911,20 +1911,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.48396</v>
+        <v>-58.423996</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.582874</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1934,17 +1934,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.423996</v>
+        <v>-58.477988</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.594973</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2051,36 +2051,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.477988</v>
+        <v>-58.4716</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.630001</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2119,36 +2119,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.4716</v>
+        <v>-58.397031</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.627623</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2187,26 +2187,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2255,36 +2255,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2319,14 +2319,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.401202</v>
+        <v>-58.369244</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61683</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="29">

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,6 +4097,142 @@
         <v>-34.627478</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>VELEZ SARSFIELD AV. 855</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807789683</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.389598</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.645174</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>-490</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/25/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Luzuriaga 1273</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807789692</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.387569</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.649344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4100,27 +4100,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4155,81 +4155,149 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.389598</v>
+        <v>-58.385887</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.645174</v>
+        <v>-34.621845</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>VELEZ SARSFIELD AV. 855</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807789683</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.389598</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.645174</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>-490</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>6/25/2025</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Luzuriaga 1273</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>807789692</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M57" t="n">
         <v>-58.387569</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N57" t="n">
         <v>-34.649344</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2264,27 +2264,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.369244</v>
+        <v>-58.483203</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.628787</v>
+        <v>-34.545634</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,36 +2391,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.483203</v>
+        <v>-58.481483</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.545634</v>
+        <v>-34.544341</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2459,16 +2459,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2527,36 +2527,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2591,30 +2591,30 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2663,36 +2663,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.41193</v>
+        <v>-58.416352</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.626628</v>
+        <v>-34.630143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2727,20 +2727,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.416352</v>
+        <v>-58.396424</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.630143</v>
+        <v>-34.602218</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,16 +2799,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2818,17 +2818,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2867,16 +2867,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2935,36 +2935,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.459566</v>
+        <v>-58.362579</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.634615</v>
+        <v>-34.635096</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3022,17 +3022,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>General Enrique Martinez 350</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168181</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3071,16 +3071,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.362579</v>
+        <v>-58.448034</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.635096</v>
+        <v>-34.579933</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 350</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807168181</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3139,16 +3139,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.448034</v>
+        <v>-58.445558</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.579933</v>
+        <v>-34.581191</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3207,16 +3207,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.445558</v>
+        <v>-58.446125</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.581191</v>
+        <v>-34.580819</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3271,20 +3271,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3339,40 +3339,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-471</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,36 +3411,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.461271</v>
+        <v>-58.486716</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.625615</v>
+        <v>-34.550004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-471</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3479,36 +3479,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.486716</v>
+        <v>-58.458518</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.550004</v>
+        <v>-34.564693</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3543,20 +3543,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.458518</v>
+        <v>-58.438022</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.564693</v>
+        <v>-34.579157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3611,20 +3611,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.438022</v>
+        <v>-58.448339</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.579157</v>
+        <v>-34.585091</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3634,17 +3634,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3683,36 +3683,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.448339</v>
+        <v>-58.401624</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.585091</v>
+        <v>-34.612001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/10/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>CIUDAD DE LA PAZ 3358</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807458266</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3751,36 +3751,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.401624</v>
+        <v>-58.467682</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.612001</v>
+        <v>-34.551767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/10/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 3358</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807458266</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3815,40 +3815,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.467682</v>
+        <v>-58.426431</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.551767</v>
+        <v>-34.627954</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3883,40 +3883,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.426431</v>
+        <v>-58.469257</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.627954</v>
+        <v>-34.542018</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3951,20 +3951,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.469257</v>
+        <v>-58.395688</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.542018</v>
+        <v>-34.592023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3974,17 +3974,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.395688</v>
+        <v>-58.402745</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.592023</v>
+        <v>-34.627478</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4087,40 +4087,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.402745</v>
+        <v>-58.385887</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.627478</v>
+        <v>-34.621845</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4155,30 +4155,30 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.385887</v>
+        <v>-58.389598</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.621845</v>
+        <v>-34.645174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4227,77 +4227,9 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.389598</v>
+        <v>-58.387569</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.645174</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>-490</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>6/25/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Luzuriaga 1273</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>807789692</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.387569</v>
-      </c>
-      <c r="N57" t="n">
         <v>-34.649344</v>
       </c>
     </row>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -3352,7 +3352,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-471</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>Coordenada_Y</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +582,16 @@
       <c r="N2" t="n">
         <v>-34.59322</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +660,16 @@
       <c r="N3" t="n">
         <v>-34.59102</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,6 +734,16 @@
       <c r="N4" t="n">
         <v>-34.612301</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -772,6 +812,16 @@
       <c r="N5" t="n">
         <v>-34.585706</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -840,6 +890,16 @@
       <c r="N6" t="n">
         <v>-34.665815</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -854,7 +914,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anchorena Tomás Manuel 1288</t>
+          <t>Anchorena 1288</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -908,6 +968,16 @@
       <c r="N7" t="n">
         <v>-34.594382</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -975,6 +1045,16 @@
       </c>
       <c r="N8" t="n">
         <v>-34.594038</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1040,6 +1120,16 @@
       <c r="N9" t="n">
         <v>-34.587957</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1107,6 +1197,16 @@
       </c>
       <c r="N10" t="n">
         <v>-34.61462</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1172,6 +1272,16 @@
       <c r="N11" t="n">
         <v>-34.549447</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1240,6 +1350,16 @@
       <c r="N12" t="n">
         <v>-34.593883</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1308,6 +1428,16 @@
       <c r="N13" t="n">
         <v>-34.620237</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1376,6 +1506,16 @@
       <c r="N14" t="n">
         <v>-34.587493</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1444,6 +1584,16 @@
       <c r="N15" t="n">
         <v>-34.578223</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1512,6 +1662,16 @@
       <c r="N16" t="n">
         <v>-34.582841</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1580,6 +1740,16 @@
       <c r="N17" t="n">
         <v>-34.649704</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1648,6 +1818,16 @@
       <c r="N18" t="n">
         <v>-34.628211</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1716,6 +1896,16 @@
       <c r="N19" t="n">
         <v>-34.582206</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1784,6 +1974,16 @@
       <c r="N20" t="n">
         <v>-34.569495</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1852,6 +2052,16 @@
       <c r="N21" t="n">
         <v>-34.582874</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1920,6 +2130,16 @@
       <c r="N22" t="n">
         <v>-34.594973</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1988,6 +2208,16 @@
       <c r="N23" t="n">
         <v>-34.630001</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2056,6 +2286,16 @@
       <c r="N24" t="n">
         <v>-34.627623</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2124,6 +2364,16 @@
       <c r="N25" t="n">
         <v>-34.591926</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2192,6 +2442,16 @@
       <c r="N26" t="n">
         <v>-34.624285</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2260,6 +2520,16 @@
       <c r="N27" t="n">
         <v>-34.61683</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2328,6 +2598,16 @@
       <c r="N28" t="n">
         <v>-34.545634</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2396,6 +2676,16 @@
       <c r="N29" t="n">
         <v>-34.544341</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2464,6 +2754,16 @@
       <c r="N30" t="n">
         <v>-34.567086</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2532,6 +2832,16 @@
       <c r="N31" t="n">
         <v>-34.556786</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2600,6 +2910,16 @@
       <c r="N32" t="n">
         <v>-34.626628</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2668,6 +2988,16 @@
       <c r="N33" t="n">
         <v>-34.630143</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2736,6 +3066,16 @@
       <c r="N34" t="n">
         <v>-34.602218</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2804,6 +3144,16 @@
       <c r="N35" t="n">
         <v>-34.619205</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2872,6 +3222,16 @@
       <c r="N36" t="n">
         <v>-34.574122</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2940,6 +3300,16 @@
       <c r="N37" t="n">
         <v>-34.634615</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3008,6 +3378,16 @@
       <c r="N38" t="n">
         <v>-34.635096</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3076,6 +3456,16 @@
       <c r="N39" t="n">
         <v>-34.579933</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3144,6 +3534,16 @@
       <c r="N40" t="n">
         <v>-34.581191</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3212,6 +3612,16 @@
       <c r="N41" t="n">
         <v>-34.580819</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3280,6 +3690,16 @@
       <c r="N42" t="n">
         <v>-34.580408</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3348,6 +3768,16 @@
       <c r="N43" t="n">
         <v>-34.625615</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3416,6 +3846,16 @@
       <c r="N44" t="n">
         <v>-34.550004</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3484,6 +3924,16 @@
       <c r="N45" t="n">
         <v>-34.564693</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3552,6 +4002,16 @@
       <c r="N46" t="n">
         <v>-34.579157</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3620,6 +4080,16 @@
       <c r="N47" t="n">
         <v>-34.585091</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3688,6 +4158,16 @@
       <c r="N48" t="n">
         <v>-34.612001</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3756,6 +4236,16 @@
       <c r="N49" t="n">
         <v>-34.551767</v>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3824,6 +4314,16 @@
       <c r="N50" t="n">
         <v>-34.627954</v>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3892,6 +4392,16 @@
       <c r="N51" t="n">
         <v>-34.542018</v>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3960,6 +4470,16 @@
       <c r="N52" t="n">
         <v>-34.592023</v>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4028,6 +4548,16 @@
       <c r="N53" t="n">
         <v>-34.627478</v>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4096,6 +4626,16 @@
       <c r="N54" t="n">
         <v>-34.621845</v>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4164,6 +4704,16 @@
       <c r="N55" t="n">
         <v>-34.645174</v>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4231,6 +4781,16 @@
       </c>
       <c r="N56" t="n">
         <v>-34.649344</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,6 +4793,80 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-499</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>La Rioja 1770</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.406225</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.631314</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,27 +826,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANDALGALA 2590</t>
+          <t>Anchorena 1288</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796141865</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+          <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -881,40 +881,40 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.502411</v>
+        <v>-58.406235</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.665815</v>
+        <v>-34.594382</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anchorena 1288</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Faltan traspasar redes y desmontar</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -963,14 +963,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.406235</v>
+        <v>-58.405961</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.594382</v>
+        <v>-34.594038</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -982,17 +982,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pendiente de retiro la vieja</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1035,16 +1035,12 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.405961</v>
+        <v>-58.388894</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.594038</v>
+        <v>-34.587957</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1060,27 +1056,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1095,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1115,46 +1111,46 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.388894</v>
+        <v>-58.477712</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.587957</v>
+        <v>-34.549447</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1169,7 +1165,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1184,55 +1180,55 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.47874</v>
+        <v>-58.44244</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.61462</v>
+        <v>-34.593883</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PINTO 3910</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>799244296</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1247,7 +1243,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1265,48 +1261,52 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.477712</v>
+        <v>-58.391218</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.549447</v>
+        <v>-34.620237</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1341,14 +1341,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.44244</v>
+        <v>-58.4158</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.593883</v>
+        <v>-34.587493</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1364,27 +1364,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1419,50 +1419,50 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.391218</v>
+        <v>-58.460926</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620237</v>
+        <v>-34.578223</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1497,50 +1497,50 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.4158</v>
+        <v>-58.478516</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.587493</v>
+        <v>-34.582841</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1555,38 +1555,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.460926</v>
+        <v>-58.487666</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.578223</v>
+        <v>-34.649704</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1598,27 +1598,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.478516</v>
+        <v>-58.426593</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.582841</v>
+        <v>-34.628211</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.487666</v>
+        <v>-58.484185</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.649704</v>
+        <v>-34.582206</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1754,27 +1754,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.426593</v>
+        <v>-58.442791</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.628211</v>
+        <v>-34.569495</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1832,7 +1832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.484185</v>
+        <v>-58.48396</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.582206</v>
+        <v>-34.582874</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1910,17 +1910,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1965,14 +1965,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.442791</v>
+        <v>-58.423996</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.569495</v>
+        <v>-34.594973</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1988,27 +1988,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2043,18 +2043,18 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.48396</v>
+        <v>-58.4716</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.582874</v>
+        <v>-34.627623</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2066,27 +2066,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2125,14 +2125,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.423996</v>
+        <v>-58.397031</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.594973</v>
+        <v>-34.591926</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2144,27 +2144,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2203,46 +2203,46 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.477988</v>
+        <v>-58.396135</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.630001</v>
+        <v>-34.624285</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2281,46 +2281,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.4716</v>
+        <v>-58.401202</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.627623</v>
+        <v>-34.61683</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2359,46 +2359,46 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.397031</v>
+        <v>-58.483203</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.591926</v>
+        <v>-34.545634</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2437,46 +2437,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.396135</v>
+        <v>-58.481483</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.624285</v>
+        <v>-34.544341</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2515,46 +2515,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.401202</v>
+        <v>-58.450724</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61683</v>
+        <v>-34.567086</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.483203</v>
+        <v>-58.46522</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.545634</v>
+        <v>-34.556786</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2612,27 +2612,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2667,50 +2667,50 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.481483</v>
+        <v>-58.41193</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.544341</v>
+        <v>-34.626628</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2749,46 +2749,46 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.450724</v>
+        <v>-58.396424</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.567086</v>
+        <v>-34.602218</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.46522</v>
+        <v>-58.404871</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.556786</v>
+        <v>-34.619205</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2901,18 +2901,18 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.41193</v>
+        <v>-58.420269</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.626628</v>
+        <v>-34.574122</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2924,27 +2924,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2979,14 +2979,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.416352</v>
+        <v>-58.459566</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.630143</v>
+        <v>-34.634615</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3002,27 +3002,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3061,14 +3061,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.396424</v>
+        <v>-58.362579</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.602218</v>
+        <v>-34.635096</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3080,27 +3080,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3139,14 +3139,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.404871</v>
+        <v>-58.445558</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.619205</v>
+        <v>-34.581191</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3158,27 +3158,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3217,10 +3217,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.420269</v>
+        <v>-58.446125</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.574122</v>
+        <v>-34.580819</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3236,27 +3236,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3291,18 +3291,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.459566</v>
+        <v>-58.447732</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.634615</v>
+        <v>-34.580408</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3314,7 +3314,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3324,17 +3324,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3373,14 +3373,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.362579</v>
+        <v>-58.461271</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.635096</v>
+        <v>-34.625615</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3392,27 +3392,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 350</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807168181</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3451,36 +3451,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.448034</v>
+        <v>-58.486716</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.579933</v>
+        <v>-34.550004</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3529,46 +3529,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.445558</v>
+        <v>-58.458518</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.581191</v>
+        <v>-34.564693</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3607,14 +3607,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.446125</v>
+        <v>-58.401624</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.580819</v>
+        <v>-34.612001</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3626,27 +3626,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3685,14 +3685,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.447732</v>
+        <v>-58.426431</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.580408</v>
+        <v>-34.627954</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3704,27 +3704,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3759,50 +3759,50 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.461271</v>
+        <v>-58.469257</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.625615</v>
+        <v>-34.542018</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3841,46 +3841,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.486716</v>
+        <v>-58.395688</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.550004</v>
+        <v>-34.592023</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3919,46 +3919,46 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.458518</v>
+        <v>-58.402745</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.564693</v>
+        <v>-34.627478</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3997,14 +3997,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.438022</v>
+        <v>-58.385887</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.579157</v>
+        <v>-34.621845</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4016,27 +4016,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4075,46 +4075,46 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.448339</v>
+        <v>-58.389598</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.585091</v>
+        <v>-34.645174</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4153,14 +4153,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.401624</v>
+        <v>-58.387569</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.612001</v>
+        <v>-34.649344</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4172,27 +4172,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>-499</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/10/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 3358</t>
+          <t>La Rioja 1770</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807458266</t>
+          <t>807946252</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4231,637 +4231,17 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.467682</v>
+        <v>-58.406225</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.551767</v>
+        <v>-34.631314</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>6137</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6/12/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>LA PLATA AV. 1058</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>807458383</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>-58.426431</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-34.627954</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>-483</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6/18/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Arcos 4326</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>807605744</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>-58.469257</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-34.542018</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>6217</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>PEÑA 2079</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>807763000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>-58.395688</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-34.592023</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>6195</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CATAMARCA 1485</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>807763057</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>-58.402745</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-34.627478</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>6236</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>San Jose 1157</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>807763095</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>-58.385887</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-34.621845</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>6269</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>807789683</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.389598</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.645174</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>-490</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>6/25/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Luzuriaga 1273</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>807789692</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>-58.387569</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-34.649344</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>-499</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>La Rioja 1770</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.406225</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-34.631314</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,27 +1520,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1579,46 +1579,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1657,26 +1657,26 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.426593</v>
+        <v>-58.484185</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.628211</v>
+        <v>-34.582206</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1735,26 +1735,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.484185</v>
+        <v>-58.442791</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.582206</v>
+        <v>-34.569495</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1764,17 +1764,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1813,46 +1813,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.442791</v>
+        <v>-58.48396</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.569495</v>
+        <v>-34.582874</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1887,30 +1887,30 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.48396</v>
+        <v>-58.423996</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.582874</v>
+        <v>-34.594973</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1920,17 +1920,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1969,46 +1969,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.423996</v>
+        <v>-58.4716</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.594973</v>
+        <v>-34.627623</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2047,46 +2047,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.4716</v>
+        <v>-58.397031</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.627623</v>
+        <v>-34.591926</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2125,14 +2125,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2144,17 +2144,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2203,14 +2203,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2222,27 +2222,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2281,36 +2281,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.401202</v>
+        <v>-58.483203</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.61683</v>
+        <v>-34.545634</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.483203</v>
+        <v>-58.481483</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.545634</v>
+        <v>-34.544341</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2378,27 +2378,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2437,14 +2437,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2515,14 +2515,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2534,27 +2534,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2589,50 +2589,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2667,18 +2667,18 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.41193</v>
+        <v>-58.396424</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.626628</v>
+        <v>-34.602218</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2749,14 +2749,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2778,17 +2778,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2827,14 +2827,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2846,7 +2846,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2856,17 +2856,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2905,14 +2905,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2924,27 +2924,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2983,14 +2983,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.459566</v>
+        <v>-58.362579</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.634615</v>
+        <v>-34.635096</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3002,7 +3002,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3061,14 +3061,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.362579</v>
+        <v>-58.445558</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.635096</v>
+        <v>-34.581191</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.445558</v>
+        <v>-58.446125</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.581191</v>
+        <v>-34.580819</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3213,14 +3213,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3291,18 +3291,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3314,27 +3314,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3373,46 +3373,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.461271</v>
+        <v>-58.486716</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.625615</v>
+        <v>-34.550004</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3451,14 +3451,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.486716</v>
+        <v>-58.458518</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.550004</v>
+        <v>-34.564693</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3470,27 +3470,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3529,46 +3529,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.458518</v>
+        <v>-58.401624</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.564693</v>
+        <v>-34.612001</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3603,18 +3603,18 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.401624</v>
+        <v>-58.426431</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.612001</v>
+        <v>-34.627954</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3626,27 +3626,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3681,50 +3681,50 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.426431</v>
+        <v>-58.469257</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.627954</v>
+        <v>-34.542018</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3759,30 +3759,30 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.469257</v>
+        <v>-58.395688</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.542018</v>
+        <v>-34.592023</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3841,14 +3841,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.395688</v>
+        <v>-58.402745</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.592023</v>
+        <v>-34.627478</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3860,7 +3860,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3870,17 +3870,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3915,14 +3915,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.402745</v>
+        <v>-58.385887</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627478</v>
+        <v>-34.621845</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3938,27 +3938,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3993,14 +3993,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.385887</v>
+        <v>-58.389598</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.621845</v>
+        <v>-34.645174</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4016,17 +4016,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4075,10 +4075,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.389598</v>
+        <v>-58.387569</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.645174</v>
+        <v>-34.649344</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4094,17 +4094,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>-499</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>La Rioja 1770</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>807946252</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.387569</v>
+        <v>-58.406225</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.649344</v>
+        <v>-34.631314</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4164,84 +4164,6 @@
         </is>
       </c>
       <c r="P48" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-499</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>La Rioja 1770</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>807946252</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.406225</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.631314</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4169,6 +4169,84 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BOYACA 712</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>808099366</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.461858</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.619348</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,27 +596,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6092</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3/15/2024</t>
+          <t>2/22/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASUNCION 2783</t>
+          <t>MARMOL, JOSE 972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>788792584</t>
+          <t>796913558</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aplomar Columna</t>
+          <t>Pendiente de traspaso nodo propio</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -641,60 +641,60 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.495259</v>
+        <v>-58.424229</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.59102</v>
+        <v>-34.625993</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>6092</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5/5/2024</t>
+          <t>3/15/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARREGUI 3910</t>
+          <t>ASUNCION 2783</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>800645483</t>
+          <t>788792584</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -707,7 +707,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aplomar Columna</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>1</t>
@@ -715,7 +719,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -725,18 +729,18 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.497719</v>
+        <v>-58.495259</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.612301</v>
+        <v>-34.59102</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -748,27 +752,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>5/5/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GUEVARA 687</t>
+          <t>ARREGUI 3910</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>792041586</t>
+          <t>800645483</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -781,11 +785,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Falta traspaso y retiro</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>1</t>
@@ -807,14 +807,14 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.453307</v>
+        <v>-58.497719</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.585706</v>
+        <v>-34.612301</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -826,27 +826,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>7/4/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Anchorena 1288</t>
+          <t>JARAMILLO 3976</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796212149</t>
+          <t>790860572</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -859,11 +859,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Faltan traspasar redes y desmontar</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>1</t>
@@ -885,46 +881,46 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.406235</v>
+        <v>-58.483033</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.594382</v>
+        <v>-34.555556</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anchorena Tomas Manuel de 1324</t>
+          <t>VUELTA DE OBLIGADO 3687</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>797379000</t>
+          <t>791898287</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -934,14 +930,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Pendiente de retiro la vieja</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>1</t>
@@ -954,55 +946,55 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.405961</v>
+        <v>-58.467531</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.594038</v>
+        <v>-34.547672</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/4/2024</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ALVEAR AV. 1866</t>
+          <t>ECHEVERRIA 2850</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>797507868</t>
+          <t>791898330</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1017,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
+          <t>Ver foto para ubicar no tiene nodo</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1027,7 +1019,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1037,46 +1029,46 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.388894</v>
+        <v>-58.460089</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.587957</v>
+        <v>-34.565514</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PINTO 3910</t>
+          <t>GUEVARA 687</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799244296</t>
+          <t>792041586</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1091,7 +1083,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
+          <t>Falta traspaso y retiro</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1101,7 +1093,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1109,16 +1101,20 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.477712</v>
+        <v>-58.453307</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.549447</v>
+        <v>-34.585706</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1130,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>Anchorena 1288</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>796212149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1165,7 +1161,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1189,14 +1185,14 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.44244</v>
+        <v>-58.406235</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.593883</v>
+        <v>-34.594382</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1208,27 +1204,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>Anchorena Tomas Manuel de 1324</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>797379000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1243,7 +1239,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1267,14 +1263,14 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.391218</v>
+        <v>-58.405961</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.620237</v>
+        <v>-34.594038</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1286,27 +1282,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>10/2/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>ALBERTI 59</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>797489950</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1316,12 +1312,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Pendiente de Traspaso y Retiro PROPIO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1331,12 +1327,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1345,14 +1341,14 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.4158</v>
+        <v>-58.401798</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.587493</v>
+        <v>-34.61024</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1364,27 +1360,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>10/4/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>ALVEAR AV. 1866</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>797507868</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1399,7 +1395,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1417,52 +1413,48 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.460926</v>
+        <v>-58.388894</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.578223</v>
+        <v>-34.587957</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>NAZCA AV. 1675</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>798295165</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1472,17 +1464,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Columna con base picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1492,19 +1484,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.478516</v>
+        <v>-58.47874</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.582841</v>
+        <v>-34.61462</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1520,27 +1512,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>COLOMBRES 75</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>798385574</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1550,12 +1542,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1565,28 +1557,28 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.426593</v>
+        <v>-58.419354</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.628211</v>
+        <v>-34.612362</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1598,27 +1590,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>Rincon 343</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>798513095</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1628,12 +1620,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1648,55 +1640,51 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.484185</v>
+        <v>-58.396196</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.582206</v>
+        <v>-34.613511</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PINTO 3910</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>799244296</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1711,7 +1699,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1721,7 +1709,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1729,52 +1717,48 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.442791</v>
+        <v>-58.477712</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.569495</v>
+        <v>-34.549447</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>QUESADA 5290</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>799451046</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1789,7 +1773,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picadada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1799,7 +1783,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1809,14 +1793,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.48396</v>
+        <v>-58.491934</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.582874</v>
+        <v>-34.569348</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1832,17 +1816,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>PARAGUAY 3629</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1852,7 +1836,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>799982164</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1862,12 +1846,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1882,7 +1866,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1891,10 +1875,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.423996</v>
+        <v>-58.415439</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.594973</v>
+        <v>-34.591481</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1910,27 +1894,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>11/14/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>AV AVELLANEDA 4020</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>800367019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1940,12 +1924,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1960,7 +1944,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1969,10 +1953,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.4716</v>
+        <v>-58.485221</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.627623</v>
+        <v>-34.629965</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1988,27 +1972,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>MOLDES 1971</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>798307407</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2018,12 +2002,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2038,7 +2022,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,46 +2031,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.397031</v>
+        <v>-58.458354</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.591926</v>
+        <v>-34.564883</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>MARTINEZ, VICTOR 41</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>800810066</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2096,17 +2080,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2116,7 +2100,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2125,14 +2109,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.396135</v>
+        <v>-58.44563</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624285</v>
+        <v>-34.622767</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2144,27 +2128,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>4368</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>12/9/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>FORMOSA 541</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>801243635</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2174,12 +2158,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2194,7 +2178,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2203,14 +2187,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.401202</v>
+        <v>-58.435851</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.61683</v>
+        <v>-34.621298</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2222,27 +2206,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2257,7 +2241,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2277,50 +2261,50 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.483203</v>
+        <v>-58.44244</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.545634</v>
+        <v>-34.593883</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>-183</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>NEUQUEN /ALT/ 2984</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>799539755</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2333,40 +2317,24 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.481483</v>
+        <v>-58.475247</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.544341</v>
+        <v>-34.621647</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2378,27 +2346,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>-204</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>PARAGUAY /ALT/ 5549</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>799540519</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2408,17 +2376,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2428,7 +2396,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2437,46 +2405,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.450724</v>
+        <v>-58.434516</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.567086</v>
+        <v>-34.576579</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2486,12 +2454,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2506,55 +2474,55 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.46522</v>
+        <v>-58.397512</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.556786</v>
+        <v>-34.609923</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>Campana	534</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>802657454</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2569,7 +2537,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2589,50 +2557,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.41193</v>
+        <v>-58.477376</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.626628</v>
+        <v>-34.626126</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>4659</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>1/17/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>GRIVEO 2209</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>802790387</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2647,7 +2615,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2657,7 +2625,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2667,50 +2635,50 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.396424</v>
+        <v>-58.495645</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.602218</v>
+        <v>-34.579497</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2725,7 +2693,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2735,7 +2703,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2745,14 +2713,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.404871</v>
+        <v>-58.391218</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.619205</v>
+        <v>-34.620237</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2768,17 +2736,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2788,7 +2756,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2803,7 +2771,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2827,10 +2795,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.420269</v>
+        <v>-58.4158</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.574122</v>
+        <v>-34.587493</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2846,27 +2814,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>803607506</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>Paraguay 1312</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>803607506</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2881,7 +2849,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2905,14 +2873,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.459566</v>
+        <v>-58.385734</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.634615</v>
+        <v>-34.598222</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2924,27 +2892,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2959,7 +2927,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2969,7 +2937,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2983,46 +2951,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.362579</v>
+        <v>-58.460926</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.635096</v>
+        <v>-34.578223</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>803607889</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>Arenales 2548</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>803607889</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3061,14 +3029,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.445558</v>
+        <v>-58.402534</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.581191</v>
+        <v>-34.593133</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3080,27 +3048,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3115,12 +3083,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3135,50 +3103,50 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.446125</v>
+        <v>-58.478516</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.580819</v>
+        <v>-34.582841</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3188,17 +3156,13 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3208,7 +3172,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3217,46 +3181,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.447732</v>
+        <v>-58.487666</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.580408</v>
+        <v>-34.649704</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-304</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>3/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>LARREA /ALT/ 172</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>804193727</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3271,12 +3235,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna TECO podrida en base</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3295,14 +3259,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.461271</v>
+        <v>-58.401999</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.625615</v>
+        <v>-34.607792</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3314,27 +3278,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3349,7 +3313,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3359,7 +3323,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3369,50 +3333,50 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.486716</v>
+        <v>-58.426593</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.550004</v>
+        <v>-34.628211</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3427,7 +3391,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3447,18 +3411,18 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.458518</v>
+        <v>-58.484185</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.564693</v>
+        <v>-34.582206</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3470,27 +3434,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3505,7 +3469,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3525,18 +3489,18 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.401624</v>
+        <v>-58.442791</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.612001</v>
+        <v>-34.569495</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3548,27 +3512,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3583,7 +3547,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3593,7 +3557,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3607,46 +3571,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.426431</v>
+        <v>-58.48396</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.627954</v>
+        <v>-34.582874</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3661,7 +3625,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3671,7 +3635,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3681,50 +3645,50 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.469257</v>
+        <v>-58.423996</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.542018</v>
+        <v>-34.594973</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3763,46 +3727,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.395688</v>
+        <v>-58.4716</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.592023</v>
+        <v>-34.627623</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3841,14 +3805,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.402745</v>
+        <v>-58.397031</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.627478</v>
+        <v>-34.591926</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3860,27 +3824,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>804736500</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>Vuelta de Obligado 2775</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>804736500</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3915,50 +3879,50 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.385887</v>
+        <v>-58.460982</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.621845</v>
+        <v>-34.555235</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3973,12 +3937,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3997,10 +3961,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.389598</v>
+        <v>-58.396135</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.645174</v>
+        <v>-34.624285</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4016,27 +3980,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4075,14 +4039,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.387569</v>
+        <v>-58.401202</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.649344</v>
+        <v>-34.61683</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4094,27 +4058,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-499</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La Rioja 1770</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807946252</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4124,12 +4088,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4144,23 +4108,23 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.406225</v>
+        <v>-58.404913</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.631314</v>
+        <v>-34.615857</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4172,76 +4136,2260 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>5686</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HUMBERTO 1° 1999</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>805507324</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso fuente</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.394304</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.621645</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5708</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5/1/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SARMIENTO 1741</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>805579089</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso nodo y fuente</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.391419</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.605543</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5731</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5/1/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RIOBAMBA 659</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>805579188</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Pendiente de traspaso nodo</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.394118</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.601416</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6106</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5/13/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CONDE 4618</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>806926485</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.483203</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.545634</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5/19/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PINTO 4677</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>806926523</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.481483</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.544341</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CABILDO AV. 1500</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>806944768</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-58.450724</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.567086</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5883</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CONGRESO AV. 2699</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>806944763</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.46522</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.556786</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>5940</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5/29/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SANCHEZ DE LORIA 1406</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807044148</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Columna con base corroída</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.41193</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.626628</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-460</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6/3/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TUCUMAN 2060</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807150552</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>columna podrida</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.396424</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.602218</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>-461</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/3/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Independencia 2796</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807150726</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.404871</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.619205</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-462</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6/3/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Juan Francisco Segui 4507</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>807150729</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Columna propia corroida</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.420269</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.574122</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>-463</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6/3/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Francisco Bilbao 2362</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>807150735</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.459566</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.634615</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5973</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PALOS 432</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807168105</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.362579</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.635096</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-466</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>General Enrique Martinez 140</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>807168184</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.445558</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.581191</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-467</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>General Enrique Martinez 188</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>807168186</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.446125</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.580819</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-469</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Newbery 3323</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>800966689</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.447732</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.580408</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5996</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BACACAY 2205</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>807187775</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>-58.461271</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-34.625615</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6280</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6/6/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Correa 3812</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>807208289</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Columna 114 picada en base, informa GCBA</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>-58.486716</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-34.550004</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-472</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MOLDES 1995</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>807208296</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>-58.458518</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-34.564693</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6075</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ALBERTI 191</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>807458159</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Colocar R400 para traspasar fuente teco</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>-58.401624</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-34.612001</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6137</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6/12/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LA PLATA AV. 1058</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>807458383</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>-58.426431</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-34.627954</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>-483</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Arcos 4326</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>807605744</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>-58.469257</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-34.542018</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>6217</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PEÑA 2079</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>807763000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>-58.395688</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-34.592023</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6195</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CATAMARCA 1485</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>807763057</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>-58.402745</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-34.627478</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>San Jose 1157</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>807763095</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>-58.385887</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-34.621845</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>VELEZ SARSFIELD AV. 855</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>807789683</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>-58.389598</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-34.645174</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>-490</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>6/25/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Luzuriaga 1273</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>807789692</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>-58.387569</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-34.649344</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-499</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>La Rioja 1770</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>807946252</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>-58.406225</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.631314</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>6376</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>7/8/2025</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>BOYACA 712</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>808099366</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M77" t="n">
         <v>-58.461858</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N77" t="n">
         <v>-34.619348</v>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Boedo</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2284,7 +2284,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-183</t>
+          <t>-204</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2294,17 +2294,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEUQUEN /ALT/ 2984</t>
+          <t>PARAGUAY /ALT/ 5549</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539755</t>
+          <t>799540519</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2314,59 +2314,75 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Recambio de columna</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M25" t="n">
-        <v>-58.475247</v>
+        <v>-58.434516</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.621647</v>
+        <v>-34.576579</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-204</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/9/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 5549</t>
+          <t>PASCO 10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799540519</t>
+          <t>802438793</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2381,12 +2397,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2396,23 +2412,23 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.434516</v>
+        <v>-58.397512</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.576579</v>
+        <v>-34.609923</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2424,27 +2440,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1/9/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PASCO 10</t>
+          <t>Campana	534</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>802438793</t>
+          <t>802657454</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2454,12 +2470,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2474,55 +2490,55 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.397512</v>
+        <v>-58.477376</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.609923</v>
+        <v>-34.626126</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4659</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/17/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Campana	534</t>
+          <t>GRIVEO 2209</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>802657454</t>
+          <t>802790387</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2537,7 +2553,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2547,7 +2563,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2557,18 +2573,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.477376</v>
+        <v>-58.495645</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.626126</v>
+        <v>-34.579497</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2580,27 +2596,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1/17/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GRIVEO 2209</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>802790387</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2615,7 +2631,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2639,46 +2655,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.495645</v>
+        <v>-58.391218</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.579497</v>
+        <v>-34.620237</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2693,7 +2709,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2703,7 +2719,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2713,18 +2729,18 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.391218</v>
+        <v>-58.4158</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.620237</v>
+        <v>-34.587493</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2736,27 +2752,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>803607506</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>Paraguay 1312</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803607506</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2771,7 +2787,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2795,14 +2811,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.4158</v>
+        <v>-58.385734</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.587493</v>
+        <v>-34.598222</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2814,27 +2830,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>803607506</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2/7/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Paraguay 1312</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>803607506</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2849,7 +2865,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2859,7 +2875,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2873,46 +2889,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.385734</v>
+        <v>-58.460926</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.598222</v>
+        <v>-34.578223</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>803607889</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>Arenales 2548</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803607889</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2927,7 +2943,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2937,7 +2953,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2951,46 +2967,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.460926</v>
+        <v>-58.402534</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.578223</v>
+        <v>-34.593133</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>803607889</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Arenales 2548</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>803607889</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3005,12 +3021,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3025,50 +3041,50 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.402534</v>
+        <v>-58.478516</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.593133</v>
+        <v>-34.582841</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3078,14 +3094,10 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Cambiar columna dañada en la base</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>0</t>
@@ -3098,7 +3110,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3107,14 +3119,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.478516</v>
+        <v>-58.487666</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.582841</v>
+        <v>-34.649704</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3126,27 +3138,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3156,23 +3168,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3181,46 +3197,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-304</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LARREA /ALT/ 172</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804193727</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3235,12 +3251,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna TECO podrida en base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3255,50 +3271,50 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.401999</v>
+        <v>-58.484185</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.607792</v>
+        <v>-34.582206</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3313,7 +3329,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3323,7 +3339,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3337,14 +3353,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.426593</v>
+        <v>-58.442791</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.628211</v>
+        <v>-34.569495</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3356,7 +3372,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3366,7 +3382,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3376,7 +3392,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3401,7 +3417,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3415,10 +3431,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.484185</v>
+        <v>-58.48396</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.582206</v>
+        <v>-34.582874</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3434,17 +3450,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3454,7 +3470,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3469,7 +3485,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3479,7 +3495,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3489,14 +3505,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.442791</v>
+        <v>-58.423996</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.569495</v>
+        <v>-34.594973</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3512,27 +3528,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3547,7 +3563,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3557,7 +3573,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3567,18 +3583,18 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.48396</v>
+        <v>-58.4716</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.582874</v>
+        <v>-34.627623</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3590,27 +3606,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3625,7 +3641,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3635,7 +3651,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3649,14 +3665,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.423996</v>
+        <v>-58.397031</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.594973</v>
+        <v>-34.591926</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3668,27 +3684,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>804736500</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>Vuelta de Obligado 2775</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804736500</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3727,14 +3743,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.4716</v>
+        <v>-58.460982</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.627623</v>
+        <v>-34.555235</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3746,27 +3762,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3781,12 +3797,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3805,14 +3821,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3824,27 +3840,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>804736500</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Vuelta de Obligado 2775</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804736500</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3883,36 +3899,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.460982</v>
+        <v>-58.401202</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.555235</v>
+        <v>-34.61683</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3922,7 +3938,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3932,17 +3948,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3952,23 +3968,23 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.396135</v>
+        <v>-58.404913</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.624285</v>
+        <v>-34.615857</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3980,17 +3996,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4000,7 +4016,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4010,12 +4026,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4030,7 +4046,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4039,14 +4055,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.401202</v>
+        <v>-58.394304</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.61683</v>
+        <v>-34.621645</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4058,27 +4074,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4093,7 +4109,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4108,23 +4124,23 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.404913</v>
+        <v>-58.391419</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.615857</v>
+        <v>-34.605543</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4136,17 +4152,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4156,7 +4172,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4171,7 +4187,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Pendiente de traspaso nodo</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4186,7 +4202,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4195,14 +4211,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.394304</v>
+        <v>-58.394118</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.621645</v>
+        <v>-34.601416</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4214,27 +4230,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4244,12 +4260,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4264,7 +4280,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4273,46 +4289,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.391419</v>
+        <v>-58.483203</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.605543</v>
+        <v>-34.545634</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4322,12 +4338,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4342,7 +4358,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4351,46 +4367,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.394118</v>
+        <v>-58.481483</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.601416</v>
+        <v>-34.544341</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4429,14 +4445,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.483203</v>
+        <v>-58.450724</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.545634</v>
+        <v>-34.567086</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4448,27 +4464,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4483,7 +4499,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4507,10 +4523,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.481483</v>
+        <v>-58.46522</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.544341</v>
+        <v>-34.556786</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4526,27 +4542,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4561,7 +4577,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4581,50 +4597,50 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.450724</v>
+        <v>-58.41193</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.567086</v>
+        <v>-34.626628</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4639,7 +4655,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4663,46 +4679,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.46522</v>
+        <v>-58.396424</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.556786</v>
+        <v>-34.602218</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4717,7 +4733,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4737,14 +4753,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.41193</v>
+        <v>-58.404871</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.626628</v>
+        <v>-34.619205</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4760,7 +4776,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4770,17 +4786,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4795,7 +4811,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4819,14 +4835,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.396424</v>
+        <v>-58.420269</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.602218</v>
+        <v>-34.574122</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4838,7 +4854,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4848,17 +4864,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4873,7 +4889,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4897,14 +4913,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.404871</v>
+        <v>-58.459566</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.619205</v>
+        <v>-34.634615</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4916,27 +4932,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4951,7 +4967,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4975,14 +4991,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.420269</v>
+        <v>-58.362579</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.574122</v>
+        <v>-34.635096</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4994,27 +5010,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5029,7 +5045,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5053,14 +5069,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.459566</v>
+        <v>-58.445558</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.634615</v>
+        <v>-34.581191</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5072,7 +5088,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5082,17 +5098,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5107,7 +5123,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5131,14 +5147,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.362579</v>
+        <v>-58.446125</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635096</v>
+        <v>-34.580819</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5150,7 +5166,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5160,7 +5176,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5170,7 +5186,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5205,14 +5221,14 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.445558</v>
+        <v>-58.447732</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.581191</v>
+        <v>-34.580408</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5228,7 +5244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5238,17 +5254,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5287,14 +5303,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.446125</v>
+        <v>-58.461271</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.580819</v>
+        <v>-34.625615</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5306,27 +5322,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5341,7 +5357,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5361,50 +5377,50 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.447732</v>
+        <v>-58.486716</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.580408</v>
+        <v>-34.550004</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5419,7 +5435,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5443,46 +5459,46 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.461271</v>
+        <v>-58.458518</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.625615</v>
+        <v>-34.564693</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5497,7 +5513,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5521,46 +5537,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.486716</v>
+        <v>-58.401624</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.550004</v>
+        <v>-34.612001</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5575,7 +5591,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5595,50 +5611,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.458518</v>
+        <v>-58.426431</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.564693</v>
+        <v>-34.627954</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5653,7 +5669,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5673,50 +5689,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5731,7 +5747,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5751,18 +5767,18 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.426431</v>
+        <v>-58.395688</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.627954</v>
+        <v>-34.592023</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5774,27 +5790,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5809,7 +5825,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5829,30 +5845,30 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.469257</v>
+        <v>-58.402745</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5862,17 +5878,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5907,18 +5923,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.395688</v>
+        <v>-58.385887</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.592023</v>
+        <v>-34.621845</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5930,27 +5946,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5965,7 +5981,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5989,10 +6005,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.402745</v>
+        <v>-58.389598</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.627478</v>
+        <v>-34.645174</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -6008,27 +6024,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6063,14 +6079,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.385887</v>
+        <v>-58.387569</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.621845</v>
+        <v>-34.649344</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -6086,17 +6102,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>-499</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>La Rioja 1770</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807946252</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6121,7 +6137,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6145,10 +6161,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.389598</v>
+        <v>-58.406225</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.645174</v>
+        <v>-34.631314</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6164,27 +6180,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6223,173 +6239,17 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.387569</v>
+        <v>-58.461858</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.649344</v>
+        <v>-34.619348</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>-499</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>La Rioja 1770</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>807946252</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>-58.406225</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-34.631314</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>6376</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>7/8/2025</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>BOYACA 712</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>808099366</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>-58.461858</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-34.619348</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6255,6 +6255,84 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-505</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Brasil 3181</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>808150460</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>-58.409002</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.634523</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -556,10 +556,8 @@
           <t>Colocar terminal para traspasar el nodo</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -634,10 +632,8 @@
           <t>Pendiente de traspaso nodo propio</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -712,10 +708,8 @@
           <t>Aplomar Columna</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -786,10 +780,8 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -860,10 +852,8 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -934,10 +924,8 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1012,10 +1000,8 @@
           <t>Ver foto para ubicar no tiene nodo</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1086,10 +1072,8 @@
           <t>Falta traspaso y retiro</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1164,10 +1148,8 @@
           <t>Faltan traspasar redes y desmontar</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1242,10 +1224,8 @@
           <t>Pendiente de retiro la vieja</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1320,10 +1300,8 @@
           <t>Pendiente de Traspaso y Retiro PROPIO</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1398,10 +1376,8 @@
           <t>Entre Av Callao y Ayacucho - Columna inclinada de 168</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1472,10 +1448,8 @@
           <t>Columna con base picada</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1550,10 +1524,8 @@
           <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1628,10 +1600,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I16" t="n">
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1702,10 +1672,8 @@
           <t>Columna fuera de plomo inclinada Pinto y Garcia del Rio</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1776,10 +1744,8 @@
           <t>Picadada</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1854,10 +1820,8 @@
           <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1932,10 +1896,8 @@
           <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2010,10 +1972,8 @@
           <t>Base picada</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2088,10 +2048,8 @@
           <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2166,10 +2124,8 @@
           <t>Traspaso y retiro de columna con Nodo Propio</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,10 +2200,8 @@
           <t>PICADA</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2322,10 +2276,8 @@
           <t>Recambio de columna</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I25" t="n">
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,10 +2352,8 @@
           <t>PIcada</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I26" t="n">
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2478,10 +2428,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2556,10 +2504,8 @@
           <t>Inclinada</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2634,10 +2580,8 @@
           <t>Inclinado</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I29" t="n">
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2712,10 +2656,8 @@
           <t>Base picada</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I30" t="n">
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2790,10 +2732,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I31" t="n">
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2868,10 +2808,8 @@
           <t>fuera de plomo</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I32" t="n">
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2946,10 +2884,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3024,10 +2960,8 @@
           <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3098,10 +3032,8 @@
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3176,10 +3108,8 @@
           <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I36" t="n">
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3254,10 +3184,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I37" t="n">
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3332,10 +3260,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I38" t="n">
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3410,10 +3336,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I39" t="n">
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3488,10 +3412,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I40" t="n">
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3566,10 +3488,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I41" t="n">
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3644,10 +3564,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I42" t="n">
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3722,10 +3640,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I43" t="n">
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3800,10 +3716,8 @@
           <t>picada</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I44" t="n">
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3878,10 +3792,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I45" t="n">
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3956,10 +3868,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I46" t="n">
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -4034,10 +3944,8 @@
           <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4112,10 +4020,8 @@
           <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I48" t="n">
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4190,10 +4096,8 @@
           <t>Pendiente de traspaso nodo</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I49" t="n">
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4268,10 +4172,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I50" t="n">
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4346,10 +4248,8 @@
           <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I51" t="n">
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4424,10 +4324,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I52" t="n">
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4502,10 +4400,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I53" t="n">
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4580,10 +4476,8 @@
           <t>Columna con base corroída</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I54" t="n">
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4658,10 +4552,8 @@
           <t>columna podrida</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4736,10 +4628,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I56" t="n">
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4814,10 +4704,8 @@
           <t>Columna propia corroida</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I57" t="n">
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4892,10 +4780,8 @@
           <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I58" t="n">
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4970,10 +4856,8 @@
           <t>Columna inclinada</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I59" t="n">
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -5048,10 +4932,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I60" t="n">
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5126,10 +5008,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I61" t="n">
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5204,10 +5084,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I62" t="n">
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5282,10 +5160,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I63" t="n">
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5360,10 +5236,8 @@
           <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I64" t="n">
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5438,10 +5312,8 @@
           <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I65" t="n">
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5516,10 +5388,8 @@
           <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I66" t="n">
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5594,10 +5464,8 @@
           <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I67" t="n">
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5672,10 +5540,8 @@
           <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I68" t="n">
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5750,10 +5616,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I69" t="n">
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5828,10 +5692,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I70" t="n">
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5906,10 +5768,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5984,10 +5844,8 @@
           <t>Columna inclinada</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -6062,10 +5920,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I73" t="n">
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6140,10 +5996,8 @@
           <t>picada</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I74" t="n">
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6218,10 +6072,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I75" t="n">
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6296,10 +6148,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,27 +2922,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2952,14 +2952,10 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Cambiar columna dañada en la base</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>0</v>
       </c>
@@ -2970,7 +2966,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2979,14 +2975,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.478516</v>
+        <v>-58.487666</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.582841</v>
+        <v>-34.649704</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2998,27 +2994,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3028,21 +3024,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+        </is>
+      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3051,46 +3051,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3127,26 +3127,26 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.426593</v>
+        <v>-58.484185</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.628211</v>
+        <v>-34.582206</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3156,17 +3156,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3203,26 +3203,26 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.484185</v>
+        <v>-58.442791</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.582206</v>
+        <v>-34.569495</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3232,17 +3232,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3279,46 +3279,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.442791</v>
+        <v>-58.48396</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.569495</v>
+        <v>-34.582874</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3351,30 +3351,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.48396</v>
+        <v>-58.423996</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.582874</v>
+        <v>-34.594973</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3384,17 +3384,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3431,46 +3431,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.423996</v>
+        <v>-58.4716</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.594973</v>
+        <v>-34.627623</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3507,46 +3507,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.4716</v>
+        <v>-58.397031</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.627623</v>
+        <v>-34.591926</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>804736500</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>Vuelta de Obligado 2775</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804736500</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3583,46 +3583,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.397031</v>
+        <v>-58.460982</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.591926</v>
+        <v>-34.555235</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>804736500</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vuelta de Obligado 2775</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804736500</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3659,36 +3659,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.460982</v>
+        <v>-58.396135</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.555235</v>
+        <v>-34.624285</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3713,11 +3713,11 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3735,14 +3735,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3754,17 +3754,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3802,19 +3802,19 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.401202</v>
+        <v>-58.404913</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.61683</v>
+        <v>-34.615857</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3878,23 +3878,23 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.404913</v>
+        <v>-58.394304</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.615857</v>
+        <v>-34.621645</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3906,27 +3906,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.394304</v>
+        <v>-58.391419</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.621645</v>
+        <v>-34.605543</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3992,17 +3992,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de traspaso nodo</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4039,14 +4039,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.391419</v>
+        <v>-58.394118</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.605543</v>
+        <v>-34.601416</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4058,27 +4058,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4115,36 +4115,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.394118</v>
+        <v>-58.483203</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.601416</v>
+        <v>-34.545634</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483203</v>
+        <v>-58.481483</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.545634</v>
+        <v>-34.544341</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4210,27 +4210,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4267,14 +4267,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4343,14 +4343,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4362,27 +4362,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4415,50 +4415,50 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4491,18 +4491,18 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.41193</v>
+        <v>-58.396424</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.626628</v>
+        <v>-34.602218</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4514,7 +4514,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4571,14 +4571,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4590,7 +4590,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4647,14 +4647,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4666,7 +4666,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4676,17 +4676,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4723,14 +4723,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4742,27 +4742,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4799,14 +4799,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.459566</v>
+        <v>-58.445558</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.634615</v>
+        <v>-34.581191</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4818,7 +4818,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4828,17 +4828,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4875,14 +4875,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.362579</v>
+        <v>-58.446125</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.635096</v>
+        <v>-34.580819</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.445558</v>
+        <v>-58.447732</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.581191</v>
+        <v>-34.580408</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4980,17 +4980,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5027,14 +5027,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.446125</v>
+        <v>-58.461271</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.580819</v>
+        <v>-34.625615</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5046,27 +5046,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5099,50 +5099,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.447732</v>
+        <v>-58.486716</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.580408</v>
+        <v>-34.550004</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5179,46 +5179,46 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.461271</v>
+        <v>-58.458518</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.625615</v>
+        <v>-34.564693</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5255,46 +5255,46 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.486716</v>
+        <v>-58.401624</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.550004</v>
+        <v>-34.612001</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5327,50 +5327,50 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.458518</v>
+        <v>-58.426431</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.564693</v>
+        <v>-34.627954</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5403,50 +5403,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5479,18 +5479,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.426431</v>
+        <v>-58.395688</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.627954</v>
+        <v>-34.592023</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5502,27 +5502,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5555,50 +5555,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.469257</v>
+        <v>-58.402745</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5635,14 +5635,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.395688</v>
+        <v>-58.389598</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.592023</v>
+        <v>-34.645174</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5654,27 +5654,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.402745</v>
+        <v>-58.387569</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.627478</v>
+        <v>-34.649344</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5730,27 +5730,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5783,18 +5783,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.385887</v>
+        <v>-58.461858</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.621845</v>
+        <v>-34.619348</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5806,17 +5806,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.389598</v>
+        <v>-58.409002</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.645174</v>
+        <v>-34.634523</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5874,310 +5874,6 @@
         </is>
       </c>
       <c r="P72" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>-490</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>6/25/2025</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Luzuriaga 1273</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>807789692</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>-58.387569</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-34.649344</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>-499</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>La Rioja 1770</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>807946252</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>-58.406225</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-34.631314</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>6376</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>7/8/2025</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>BOYACA 712</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>808099366</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>-58.461858</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-34.619348</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>-505</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>7/11/2025</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Brasil 3181</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>808150460</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>-58.409002</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-34.634523</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5879,6 +5879,82 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CASTELLI 304</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>808194260</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>-58.404696</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-34.606337</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_PEBCOM.xlsx
+++ b/mapa_interactivo_PEBCOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4058,17 +4058,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483203</v>
+        <v>-58.481483</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.545634</v>
+        <v>-34.544341</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4134,27 +4134,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4191,14 +4191,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4267,14 +4267,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4286,27 +4286,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4339,50 +4339,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4415,18 +4415,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.41193</v>
+        <v>-58.396424</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.626628</v>
+        <v>-34.602218</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4438,7 +4438,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4495,14 +4495,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4514,7 +4514,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4524,17 +4524,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4571,14 +4571,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4590,7 +4590,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4647,14 +4647,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4666,27 +4666,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4723,14 +4723,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.459566</v>
+        <v>-58.445558</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.634615</v>
+        <v>-34.581191</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4742,7 +4742,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.445558</v>
+        <v>-58.446125</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.581191</v>
+        <v>-34.580819</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4871,14 +4871,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4904,17 +4904,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4970,27 +4970,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5027,46 +5027,46 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.461271</v>
+        <v>-58.458518</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.625615</v>
+        <v>-34.564693</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5103,46 +5103,46 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.486716</v>
+        <v>-58.401624</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.550004</v>
+        <v>-34.612001</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5175,50 +5175,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.458518</v>
+        <v>-58.426431</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.564693</v>
+        <v>-34.627954</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5251,50 +5251,50 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5327,18 +5327,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.426431</v>
+        <v>-58.395688</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.627954</v>
+        <v>-34.592023</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5350,27 +5350,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5403,50 +5403,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.469257</v>
+        <v>-58.402745</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5483,14 +5483,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.395688</v>
+        <v>-58.389598</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.592023</v>
+        <v>-34.645174</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5502,27 +5502,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5559,10 +5559,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.402745</v>
+        <v>-58.387569</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.627478</v>
+        <v>-34.649344</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5578,27 +5578,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5635,14 +5635,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.389598</v>
+        <v>-58.461858</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.645174</v>
+        <v>-34.619348</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5654,17 +5654,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.387569</v>
+        <v>-58.409002</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.649344</v>
+        <v>-34.634523</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5730,27 +5730,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5787,169 +5787,17 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.461858</v>
+        <v>-58.404696</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.619348</v>
+        <v>-34.606337</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>-505</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>7/11/2025</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Brasil 3181</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>808150460</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>-58.409002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-34.634523</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>6388</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>7/14/2025</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CASTELLI 304</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>808194260</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>-58.404696</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-34.606337</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
